--- a/data/HR1/Location1/Location1_2040.xlsx
+++ b/data/HR1/Location1/Location1_2040.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E878CA51-DEB9-4A9B-B16E-DF3946A16783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF6CC98-8A81-46C8-B1FD-8CBA182CC1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9321,7 +9321,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9334,10 +9334,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="1">
         <v>0.2</v>
@@ -9360,7 +9360,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="2">
         <v>0.95</v>
@@ -9380,7 +9380,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D3" s="2">
         <v>1.1000000000000001</v>
@@ -22081,99 +22081,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Pc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66293734631203649</v>
+        <v>0.59664361168083291</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Pc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0713316939950559</v>
+        <v>6.364198524595551</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Pc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.535665846997528</v>
+        <v>3.1820992622977755</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Pc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55244778859336374</v>
+        <v>0.49720300973402737</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Pc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55244778859336374</v>
+        <v>0.49720300973402737</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Pc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66293734631203649</v>
+        <v>0.59664361168083291</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Pc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44195823087469099</v>
+        <v>0.39776240778722194</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Pc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2209791154373455</v>
+        <v>0.19888120389361097</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Pc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44195823087469099</v>
+        <v>0.39776240778722194</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Pc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1986031933095642</v>
+        <v>3.778742873978608</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Pc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3314686731560183</v>
+        <v>0.29832180584041651</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Pc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88391646174938199</v>
+        <v>0.79552481557444388</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Pc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44195823087469099</v>
+        <v>0.39776240778722194</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Pc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55244778859336374</v>
+        <v>0.49720300973402737</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Pc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9888120389361095</v>
+        <v>1.7899308350424987</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Pc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55244778859336374</v>
+        <v>0.49720300973402737</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Pc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44195823087469099</v>
+        <v>0.39776240778722194</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Pc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44195823087469099</v>
+        <v>0.39776240778722194</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Pc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.325874692624073</v>
+        <v>1.1932872233616658</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Pc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2209791154373455</v>
+        <v>0.19888120389361097</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Pc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44195823087469099</v>
+        <v>0.39776240778722194</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Pc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2209791154373455</v>
+        <v>0.19888120389361097</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Pc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44195823087469099</v>
+        <v>0.39776240778722194</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Pc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2209791154373455</v>
+        <v>0.19888120389361097</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -22182,99 +22182,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Pc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.213995081985168</v>
+        <v>19.092595573786653</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Pc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.66714127392375</v>
+        <v>17.700427146531375</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Pc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.225183043049057</v>
+        <v>17.302664738744152</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Pc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.66714127392375</v>
+        <v>17.700427146531375</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Pc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.556651716205074</v>
+        <v>17.600986544584568</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Pc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.33567260076773</v>
+        <v>17.402105340690959</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Pc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.993015966547823</v>
+        <v>18.89371436989304</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Pc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.959452083356148</v>
+        <v>24.263506875020536</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Pc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.500711910885624</v>
+        <v>26.550640719797062</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Pc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.285326775980224</v>
+        <v>25.456794098382204</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Pc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.169243237729603</v>
+        <v>26.252318913956643</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Pc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.163649257197662</v>
+        <v>27.147284331477895</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Pc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.721691026322969</v>
+        <v>26.749521923690672</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Pc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.274138814916331</v>
+        <v>27.246724933424701</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Pc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.180431198793499</v>
+        <v>24.462388078914149</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Pc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.953858102824206</v>
+        <v>25.158472292541784</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Pc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.401410314230841</v>
+        <v>24.661269282807758</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Pc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.064347660542875</v>
+        <v>25.257912894488591</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Pc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.953858102824206</v>
+        <v>25.158472292541784</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Pc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.727285006854913</v>
+        <v>25.854556506169427</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Pc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.727285006854913</v>
+        <v>25.854556506169427</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Pc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.500711910885624</v>
+        <v>26.550640719797062</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Pc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.848962525637479</v>
+        <v>24.164066273073733</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Pc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.528681813545351</v>
+        <v>22.075813632190815</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -22283,99 +22283,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Pc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.837774564573589</v>
+        <v>25.95399710811623</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Pc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.616795449136241</v>
+        <v>25.755115904222617</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Pc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.296514737044117</v>
+        <v>23.666863263339703</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Pc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.732878987386862</v>
+        <v>24.959591088648178</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Pc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.081129602138713</v>
+        <v>22.573016641924841</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Pc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.843368545105537</v>
+        <v>25.059031690594981</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Pc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.4727420082259</v>
+        <v>31.025467807403309</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Pc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>41.986031933095646</v>
+        <v>37.78742873978608</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Pc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>40.881136355908914</v>
+        <v>36.793022720318028</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Pc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>42.538479721689008</v>
+        <v>38.284631749520109</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Pc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>39.665751221003518</v>
+        <v>35.699176098903166</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Pc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>41.875542375376973</v>
+        <v>37.687988137839277</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Pc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>41.212605029064932</v>
+        <v>37.091344526158444</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Pc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>42.096521490814318</v>
+        <v>37.886869341732883</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Pc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>41.212605029064932</v>
+        <v>37.091344526158444</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Pc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>36.903512278036693</v>
+        <v>33.213161050233026</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Pc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.566449624348735</v>
+        <v>33.809804661913866</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Pc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.124491393474045</v>
+        <v>33.412042254126639</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Pc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.234980951192718</v>
+        <v>33.511482856073449</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Pc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>38.781834759254139</v>
+        <v>34.903651283328728</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Pc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.78742873978608</v>
+        <v>34.008685865807479</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Pc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.897918297504752</v>
+        <v>34.108126467754275</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Pc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.141273335069876</v>
+        <v>30.72714600156289</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Pc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.036377757883152</v>
+        <v>29.732739982094838</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -22384,99 +22384,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Pc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>42.980437952563697</v>
+        <v>38.682394157307328</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Pc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.897918297504752</v>
+        <v>34.108126467754275</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Pc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.246168912256607</v>
+        <v>31.721552021030949</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Pc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.4727420082259</v>
+        <v>31.025467807403306</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Pc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.246168912256607</v>
+        <v>31.721552021030949</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Pc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.704909084727134</v>
+        <v>29.434418176254418</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Pc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>39.113303432410149</v>
+        <v>35.201973089169137</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Pc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>47.510509819029281</v>
+        <v>42.75945883712636</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Pc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>52.814008589525571</v>
+        <v>47.532607730573012</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Pc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>55.134289301617699</v>
+        <v>49.620860371455926</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Pc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>59.332892494927272</v>
+        <v>53.399603245434548</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Pc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>61.653173207019393</v>
+        <v>55.487855886317455</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Pc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>60.769256745270013</v>
+        <v>54.692331070743009</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Pc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>62.537089668768779</v>
+        <v>56.2833807018919</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Pc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>58.117507360021868</v>
+        <v>52.305756624019686</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Pc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>58.890934264052582</v>
+        <v>53.001840837647322</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Pc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>56.902122225116464</v>
+        <v>51.211910002604817</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Pc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>58.227996917740533</v>
+        <v>52.405197225966482</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Pc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>54.913310186180361</v>
+        <v>49.421979167562327</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Pc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>54.692331070743009</v>
+        <v>49.223097963668714</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Pc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>54.581841513024344</v>
+        <v>49.123657361721911</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Pc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>58.227996917740541</v>
+        <v>52.405197225966489</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Pc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>58.007017802303196</v>
+        <v>52.206316022072876</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Pc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>50.162259204277433</v>
+        <v>45.14603328384969</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -22485,99 +22485,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Pc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8671345201535461</v>
+        <v>3.4804210681381913</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Pc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5468538080614189</v>
+        <v>1.3921684272552772</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Pc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0993015966547826</v>
+        <v>1.8893714369893044</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Pc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7678329234987635</v>
+        <v>1.5910496311488873</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Pc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44195823087469138</v>
+        <v>0.39776240778722227</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Pc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77342690403070846</v>
+        <v>0.69608421362763762</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Pc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0881136355908909</v>
+        <v>3.6793022720318023</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Pc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.0601437329311647</v>
+        <v>8.1541293596380484</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Pc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.380424445023294</v>
+        <v>10.242382000520966</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Pc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.153851349054003</v>
+        <v>10.938466214148603</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Pc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.153851349054003</v>
+        <v>10.938466214148603</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Pc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.253152945708782</v>
+        <v>12.827837651137905</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Pc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.700705157115419</v>
+        <v>12.330634641403877</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Pc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.253152945708782</v>
+        <v>12.827837651137905</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Pc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.59021559939675</v>
+        <v>12.231194039457074</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Pc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.822382675897984</v>
+        <v>10.640144408308185</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Pc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.490914002741965</v>
+        <v>10.341822602467769</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Pc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.26993488730462</v>
+        <v>10.142941398574157</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Pc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.938466214148601</v>
+        <v>9.8446195927337392</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Pc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.717487098711256</v>
+        <v>9.6457383888401313</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Pc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.490914002741965</v>
+        <v>10.341822602467769</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Pc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.032173830271438</v>
+        <v>12.628956447244295</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Pc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.805600734302146</v>
+        <v>13.325040660871933</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Pc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.275528867836567</v>
+        <v>9.2479759810529103</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -22687,99 +22687,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Pc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>46.295124684123877</v>
+        <v>41.665612215711498</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Pc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>61.432194091582048</v>
+        <v>55.288974682423842</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Pc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>76.016815710446849</v>
+        <v>68.41513413940217</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Pc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>65.409818169454269</v>
+        <v>58.868836352508843</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Pc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>60.548277629832661</v>
+        <v>54.493449866849403</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Pc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>47.400020261310608</v>
+        <v>42.66001823517955</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Pc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.064347660542875</v>
+        <v>25.257912894488591</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Pc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.606997540992586</v>
+        <v>9.5462977868933283</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Pc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1930092127776186</v>
+        <v>4.6737082914998567</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Pc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.4083943476830179</v>
+        <v>-5.7675549129147159</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Pc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.0881136355908909</v>
+        <v>-3.6793022720318023</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Pc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-13.369236483959405</v>
+        <v>-12.032312835563465</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Pc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-16.46294410008224</v>
+        <v>-14.816649690074016</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Pc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-20.882526408829147</v>
+        <v>-18.794273767946233</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Pc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.8335706369618752</v>
+        <v>-8.8502135732656875</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Pc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4363642503427465</v>
+        <v>-1.2927278253084717</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Pc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.5132899248697456</v>
+        <v>6.7619609323827712</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Pc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.0601437329311647</v>
+        <v>8.1541293596380484</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Pc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.876932428297202</v>
+        <v>19.689239185467478</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Pc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.318890659171895</v>
+        <v>20.087001593254705</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Pc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.358048522895512</v>
+        <v>13.82224367060596</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Pc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9608421362763844</v>
+        <v>6.2647579226487453</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Pc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.258746926240729</v>
+        <v>11.932872233616658</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Pc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.695111176583476</v>
+        <v>13.225600058925128</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -22788,99 +22788,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Pc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.826586603509696</v>
+        <v>27.743927943158727</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Pc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.274138814916331</v>
+        <v>27.246724933424701</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Pc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.732878987386862</v>
+        <v>24.959591088648178</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Pc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.511899871949513</v>
+        <v>24.760709884754561</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Pc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.180431198793499</v>
+        <v>24.462388078914149</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Pc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.285326775980224</v>
+        <v>25.456794098382204</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Pc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.506305891417568</v>
+        <v>25.655675302275814</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Pc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.937076161228369</v>
+        <v>27.84336854510553</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Pc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.373440411571117</v>
+        <v>29.136096370414005</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Pc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.262950853852445</v>
+        <v>29.036655768467199</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Pc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.158055276665714</v>
+        <v>28.042249748999144</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Pc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.053159699478986</v>
+        <v>27.047843729531088</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Pc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.064347660542875</v>
+        <v>25.257912894488591</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Pc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.395816333698896</v>
+        <v>25.556234700329007</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Pc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.186025179325441</v>
+        <v>23.567422661392897</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Pc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.738472967918803</v>
+        <v>24.064625671126926</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Pc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.622389429668186</v>
+        <v>24.860150486701368</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Pc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.395816333698896</v>
+        <v>25.556234700329007</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Pc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.379034392103058</v>
+        <v>28.241130952892753</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Pc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.35665846997528</v>
+        <v>31.820992622977752</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Pc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.379034392103058</v>
+        <v>28.241130952892753</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Pc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.815398642445807</v>
+        <v>29.533858778201225</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Pc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.489523949821734</v>
+        <v>28.340571554839563</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Pc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.970640044420044</v>
+        <v>22.473576039978042</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -22889,99 +22889,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Pc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>116.01403560460639</v>
+        <v>104.41263204414575</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Pc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>97.230810792432024</v>
+        <v>87.507729713188823</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Pc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>82.867168289004567</v>
+        <v>74.580451460104101</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Pc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>79.552481557444381</v>
+        <v>71.597233401699938</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Pc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>79.552481557444381</v>
+        <v>71.597233401699938</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Pc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>93.916124060871837</v>
+        <v>84.524511654784646</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Pc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>131.48257368522056</v>
+        <v>118.33431631669852</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Pc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>145.84621618864801</v>
+        <v>131.26159456978323</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Pc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>175.67839677268967</v>
+        <v>158.11055709542069</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Pc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>184.51756139018349</v>
+        <v>166.06580525116516</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Pc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>190.04203927611712</v>
+        <v>171.03783534850544</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Pc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>205.51057735673132</v>
+        <v>184.95951962105818</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Pc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>220.97911543734548</v>
+        <v>198.88120389361094</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Pc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>215.45463755141185</v>
+        <v>193.90917379627066</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Pc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>207.72036851110477</v>
+        <v>186.9483316599943</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Pc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>197.77630831642421</v>
+        <v>177.99867748478178</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Pc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>185.62245696737023</v>
+        <v>167.0602112706332</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Pc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>184.51756139018349</v>
+        <v>166.06580525116516</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Pc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>174.57350119550296</v>
+        <v>157.11615107595267</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Pc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>182.30777023581004</v>
+        <v>164.07699321222904</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Pc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>182.30777023581004</v>
+        <v>164.07699321222904</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Pc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>190.04203927611712</v>
+        <v>171.03783534850544</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Pc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>176.7832923498764</v>
+        <v>159.10496311488876</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Pc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>133.69236483959403</v>
+        <v>120.32312835563462</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -22990,99 +22990,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Pc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9832180584041645</v>
+        <v>2.6848962525637479</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Pc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.535665846997528</v>
+        <v>3.1820992622977755</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Pc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8727285006854917</v>
+        <v>2.5854556506169426</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Pc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3146867315601822</v>
+        <v>2.9832180584041645</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Pc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.209791154373455</v>
+        <v>1.9888120389361095</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Pc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1048955771867275</v>
+        <v>0.99440601946805474</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Pc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.209791154373455</v>
+        <v>1.9888120389361095</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Pc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4195823087469099</v>
+        <v>3.9776240778722189</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Pc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5244778859336376</v>
+        <v>4.9720300973402738</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Pc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5300718664655824</v>
+        <v>4.0770646798190242</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Pc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.8503525785577102</v>
+        <v>6.1653173207019396</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Pc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0881136355908918</v>
+        <v>3.6793022720318027</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Pc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8671345201535461</v>
+        <v>3.4804210681381913</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Pc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.286716828900456</v>
+        <v>7.4580451460104102</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Pc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0881136355908918</v>
+        <v>3.6793022720318027</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Pc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0769256745270015</v>
+        <v>5.4692331070743014</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Pc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8559465590896558</v>
+        <v>5.27035190318069</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Pc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5188839054016929</v>
+        <v>5.8669955148615234</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Pc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6461554047162004</v>
+        <v>3.2815398642445803</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Pc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8615405396216014</v>
+        <v>4.3753864856594413</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Pc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4251762892788551</v>
+        <v>3.0826586603509698</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Pc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7510509819029281</v>
+        <v>4.2759458837126356</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Pc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5188839054016929</v>
+        <v>5.8669955148615234</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Pc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4251762892788551</v>
+        <v>3.0826586603509698</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -23091,99 +23091,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Pc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.523087833013403</v>
+        <v>22.970779049712064</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Pc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.418192255826678</v>
+        <v>21.976373030244009</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Pc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.202807120921278</v>
+        <v>20.88252640882915</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Pc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.19721314038933</v>
+        <v>21.777491826350399</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Pc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.976234024951989</v>
+        <v>21.578610622456793</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Pc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.19721314038933</v>
+        <v>21.777491826350399</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Pc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.48392996928979</v>
+        <v>29.235536972360809</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Pc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>36.572043604880676</v>
+        <v>32.91483924439261</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Pc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>38.671345201535459</v>
+        <v>34.804210681381917</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Pc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>36.572043604880683</v>
+        <v>32.914839244392617</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Pc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.467148027693952</v>
+        <v>31.920433224924558</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Pc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.897918297504759</v>
+        <v>34.108126467754282</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Pc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.676939182067407</v>
+        <v>33.909245263860669</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Pc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.246168912256607</v>
+        <v>31.721552021030949</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Pc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.699315104195186</v>
+        <v>30.32938359377567</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Pc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.48392996928979</v>
+        <v>29.235536972360809</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Pc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.48392996928979</v>
+        <v>29.235536972360809</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Pc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.047565718947045</v>
+        <v>27.942809147052341</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Pc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.931482180696424</v>
+        <v>28.738333962626779</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Pc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.588825546476514</v>
+        <v>30.229942991828864</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Pc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.036377757883152</v>
+        <v>29.732739982094841</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Pc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.91470023910059</v>
+        <v>31.423230215190532</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Pc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.48392996928979</v>
+        <v>29.235536972360809</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Pc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.843368545105537</v>
+        <v>25.059031690594981</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -23192,99 +23192,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Pc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.4028003671510731</v>
+        <v>6.6625203304359664</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Pc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7398630208390369</v>
+        <v>6.0658767187551339</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Pc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2979047899643454</v>
+        <v>5.668114310967912</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Pc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.071331693995055</v>
+        <v>6.3641985245955501</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Pc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.5132899248697473</v>
+        <v>6.761960932382773</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Pc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4083943476830196</v>
+        <v>5.7675549129147168</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Pc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.0601437329311647</v>
+        <v>8.1541293596380484</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Pc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1762272711817836</v>
+        <v>7.3586045440636054</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Pc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.5076959443378026</v>
+        <v>7.6569263499040225</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Pc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.1706332906498389</v>
+        <v>8.253569961584855</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Pc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.8447585980257646</v>
+        <v>7.0602827382231883</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Pc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.618185502056475</v>
+        <v>7.7563669518508274</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Pc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.3972063866191284</v>
+        <v>7.5574857479572159</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Pc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.9552481557444379</v>
+        <v>7.1597233401699949</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Pc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.286716828900456</v>
+        <v>7.4580451460104102</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Pc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.9552481557444379</v>
+        <v>7.1597233401699949</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Pc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.8391646174938199</v>
+        <v>7.9552481557444379</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Pc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.3972063866191284</v>
+        <v>7.5574857479572159</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Pc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1762272711817836</v>
+        <v>7.3586045440636054</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Pc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.6125915215245286</v>
+        <v>8.6513323693720761</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Pc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.3916124060871837</v>
+        <v>8.4524511654784664</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Pc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.054549752399222</v>
+        <v>9.0490947771592989</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Pc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.7286750597751457</v>
+        <v>7.8558075537976322</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Pc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.1706332906498389</v>
+        <v>8.253569961584855</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -23293,11 +23293,11 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Pc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33146867315601825</v>
+        <v>0.29832180584041645</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Pc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2209791154373455</v>
+        <v>0.19888120389361097</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Pc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="E14" s="1">
         <f>'[1]Pc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33146867315601825</v>
+        <v>0.29832180584041645</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Pc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -23313,79 +23313,79 @@
       </c>
       <c r="G14" s="1">
         <f>'[1]Pc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.88391646174938199</v>
+        <v>-0.79552481557444388</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Pc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33146867315601825</v>
+        <v>-0.29832180584041645</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Pc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2209791154373455</v>
+        <v>-0.19888120389361097</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Pc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33146867315601825</v>
+        <v>0.29832180584041645</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Pc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33146867315601825</v>
+        <v>-0.29832180584041645</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Pc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33146867315601825</v>
+        <v>0.29832180584041645</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Pc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44195823087469099</v>
+        <v>-0.39776240778722194</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Pc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.55244778859336374</v>
+        <v>-0.49720300973402737</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Pc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77342690403070924</v>
+        <v>0.69608421362763828</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Pc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.55244778859336374</v>
+        <v>-0.49720300973402737</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Pc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77342690403070924</v>
+        <v>0.69608421362763828</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Pc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33146867315601825</v>
+        <v>0.29832180584041645</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Pc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2209791154373455</v>
+        <v>0.19888120389361097</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Pc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.55244778859336374</v>
+        <v>-0.49720300973402737</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Pc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11048955771867275</v>
+        <v>9.9440601946805485E-2</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Pc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33146867315601825</v>
+        <v>-0.29832180584041645</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Pc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11048955771867275</v>
+        <v>-9.9440601946805485E-2</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Pc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66293734631203649</v>
+        <v>0.59664361168083291</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Pc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2209791154373455</v>
+        <v>0.19888120389361097</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -23394,99 +23394,99 @@
       </c>
       <c r="B15" s="1">
         <f>'[1]Pc, 2020, Summer'!B15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1930092127776195</v>
+        <v>4.6737082914998576</v>
       </c>
       <c r="C15" s="1">
         <f>'[1]Pc, 2020, Summer'!C15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9720300973402738</v>
+        <v>4.4748270876062461</v>
       </c>
       <c r="D15" s="1">
         <f>'[1]Pc, 2020, Summer'!D15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9720300973402738</v>
+        <v>4.4748270876062461</v>
       </c>
       <c r="E15" s="1">
         <f>'[1]Pc, 2020, Summer'!E15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5244778859336376</v>
+        <v>4.9720300973402738</v>
       </c>
       <c r="F15" s="1">
         <f>'[1]Pc, 2020, Summer'!F15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9720300973402738</v>
+        <v>4.4748270876062461</v>
       </c>
       <c r="G15" s="1">
         <f>'[1]Pc, 2020, Summer'!G15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7510509819029281</v>
+        <v>4.2759458837126356</v>
       </c>
       <c r="H15" s="1">
         <f>'[1]Pc, 2020, Summer'!H15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7510509819029281</v>
+        <v>4.2759458837126356</v>
       </c>
       <c r="I15" s="1">
         <f>'[1]Pc, 2020, Summer'!I15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8615405396216014</v>
+        <v>4.3753864856594413</v>
       </c>
       <c r="J15" s="1">
         <f>'[1]Pc, 2020, Summer'!J15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0825196550589462</v>
+        <v>4.5742676895530519</v>
       </c>
       <c r="K15" s="1">
         <f>'[1]Pc, 2020, Summer'!K15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7510509819029281</v>
+        <v>4.2759458837126356</v>
       </c>
       <c r="L15" s="1">
         <f>'[1]Pc, 2020, Summer'!L15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0769256745270015</v>
+        <v>5.4692331070743014</v>
       </c>
       <c r="M15" s="1">
         <f>'[1]Pc, 2020, Summer'!M15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7510509819029281</v>
+        <v>4.2759458837126356</v>
       </c>
       <c r="N15" s="1">
         <f>'[1]Pc, 2020, Summer'!N15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9664361168083291</v>
+        <v>5.3697925051274957</v>
       </c>
       <c r="O15" s="1">
         <f>'[1]Pc, 2020, Summer'!O15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2979047899643472</v>
+        <v>5.668114310967912</v>
       </c>
       <c r="P15" s="1">
         <f>'[1]Pc, 2020, Summer'!P15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1874152322456739</v>
+        <v>5.5686737090211063</v>
       </c>
       <c r="Q15" s="1">
         <f>'[1]Pc, 2020, Summer'!Q15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4083943476830196</v>
+        <v>5.7675549129147168</v>
       </c>
       <c r="R15" s="1">
         <f>'[1]Pc, 2020, Summer'!R15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1874152322456739</v>
+        <v>5.5686737090211063</v>
       </c>
       <c r="S15" s="1">
         <f>'[1]Pc, 2020, Summer'!S15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7398630208390369</v>
+        <v>6.0658767187551339</v>
       </c>
       <c r="T15" s="1">
         <f>'[1]Pc, 2020, Summer'!T15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7510509819029281</v>
+        <v>4.2759458837126356</v>
       </c>
       <c r="U15" s="1">
         <f>'[1]Pc, 2020, Summer'!U15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1986031933095642</v>
+        <v>3.778742873978608</v>
       </c>
       <c r="V15" s="1">
         <f>'[1]Pc, 2020, Summer'!V15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1986031933095642</v>
+        <v>3.778742873978608</v>
       </c>
       <c r="W15" s="1">
         <f>'[1]Pc, 2020, Summer'!W15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4195823087469099</v>
+        <v>3.9776240778722189</v>
       </c>
       <c r="X15" s="1">
         <f>'[1]Pc, 2020, Summer'!X15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6405614241842557</v>
+        <v>4.1765052817658299</v>
       </c>
       <c r="Y15" s="1">
         <f>'[1]Pc, 2020, Summer'!Y15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33146867315601825</v>
+        <v>0.29832180584041645</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -23495,99 +23495,99 @@
       </c>
       <c r="B16" s="1">
         <f>'[1]Pc, 2020, Summer'!B16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2979047899643472</v>
+        <v>5.668114310967912</v>
       </c>
       <c r="C16" s="1">
         <f>'[1]Pc, 2020, Summer'!C16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7454570013709834</v>
+        <v>5.1709113012338852</v>
       </c>
       <c r="D16" s="1">
         <f>'[1]Pc, 2020, Summer'!D16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4139883282149652</v>
+        <v>4.8725894953934681</v>
       </c>
       <c r="E16" s="1">
         <f>'[1]Pc, 2020, Summer'!E16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3034987704962919</v>
+        <v>4.7731488934466633</v>
       </c>
       <c r="F16" s="1">
         <f>'[1]Pc, 2020, Summer'!F16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3034987704962919</v>
+        <v>4.7731488934466633</v>
       </c>
       <c r="G16" s="1">
         <f>'[1]Pc, 2020, Summer'!G16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3034987704962919</v>
+        <v>4.7731488934466633</v>
       </c>
       <c r="H16" s="1">
         <f>'[1]Pc, 2020, Summer'!H16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.6237794825884198</v>
+        <v>6.8614015343295787</v>
       </c>
       <c r="I16" s="1">
         <f>'[1]Pc, 2020, Summer'!I16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.386018425555239</v>
+        <v>9.3474165829997151</v>
       </c>
       <c r="J16" s="1">
         <f>'[1]Pc, 2020, Summer'!J16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.82797665642993</v>
+        <v>9.7451789907869362</v>
       </c>
       <c r="K16" s="1">
         <f>'[1]Pc, 2020, Summer'!K16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.717487098711256</v>
+        <v>9.6457383888401313</v>
       </c>
       <c r="L16" s="1">
         <f>'[1]Pc, 2020, Summer'!L16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.496507983273911</v>
+        <v>9.4468571849465199</v>
       </c>
       <c r="M16" s="1">
         <f>'[1]Pc, 2020, Summer'!M16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.82797665642993</v>
+        <v>9.7451789907869362</v>
       </c>
       <c r="N16" s="1">
         <f>'[1]Pc, 2020, Summer'!N16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.380424445023294</v>
+        <v>10.242382000520966</v>
       </c>
       <c r="O16" s="1">
         <f>'[1]Pc, 2020, Summer'!O16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.048955771867275</v>
+        <v>9.9440601946805476</v>
       </c>
       <c r="P16" s="1">
         <f>'[1]Pc, 2020, Summer'!P16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.386018425555239</v>
+        <v>9.3474165829997151</v>
       </c>
       <c r="Q16" s="1">
         <f>'[1]Pc, 2020, Summer'!Q16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5021019638058561</v>
+        <v>8.5518917674252712</v>
       </c>
       <c r="R16" s="1">
         <f>'[1]Pc, 2020, Summer'!R16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5021019638058561</v>
+        <v>8.5518917674252712</v>
       </c>
       <c r="S16" s="1">
         <f>'[1]Pc, 2020, Summer'!S16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.6125915215245286</v>
+        <v>8.6513323693720761</v>
       </c>
       <c r="T16" s="1">
         <f>'[1]Pc, 2020, Summer'!T16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.717487098711256</v>
+        <v>9.6457383888401313</v>
       </c>
       <c r="U16" s="1">
         <f>'[1]Pc, 2020, Summer'!U16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.9440601946805476</v>
+        <v>8.9496541752124923</v>
       </c>
       <c r="V16" s="1">
         <f>'[1]Pc, 2020, Summer'!V16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.496507983273911</v>
+        <v>9.4468571849465199</v>
       </c>
       <c r="W16" s="1">
         <f>'[1]Pc, 2020, Summer'!W16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.159445329585948</v>
+        <v>10.043500796627352</v>
       </c>
       <c r="X16" s="1">
         <f>'[1]Pc, 2020, Summer'!X16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.7230810792432028</v>
+        <v>8.7507729713188827</v>
       </c>
       <c r="Y16" s="1">
         <f>'[1]Pc, 2020, Summer'!Y16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.6237794825884198</v>
+        <v>6.8614015343295787</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -23596,99 +23596,99 @@
       </c>
       <c r="B17" s="1">
         <f>'[1]Pc, 2020, Summer'!B17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.75525490951464</v>
+        <v>21.37972941856318</v>
       </c>
       <c r="C17" s="1">
         <f>'[1]Pc, 2020, Summer'!C17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.76644287057853</v>
+        <v>19.589798583520679</v>
       </c>
       <c r="D17" s="1">
         <f>'[1]Pc, 2020, Summer'!D17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.324484639703837</v>
+        <v>19.192036175733453</v>
       </c>
       <c r="E17" s="1">
         <f>'[1]Pc, 2020, Summer'!E17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.440568177954457</v>
+        <v>18.396511360159014</v>
       </c>
       <c r="F17" s="1">
         <f>'[1]Pc, 2020, Summer'!F17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.219589062517112</v>
+        <v>18.197630156265404</v>
       </c>
       <c r="G17" s="1">
         <f>'[1]Pc, 2020, Summer'!G17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.10909950479844</v>
+        <v>18.098189554318594</v>
       </c>
       <c r="H17" s="1">
         <f>'[1]Pc, 2020, Summer'!H17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.075535621606772</v>
+        <v>23.467982059446094</v>
       </c>
       <c r="I17" s="1">
         <f>'[1]Pc, 2020, Summer'!I17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.942670141760317</v>
+        <v>26.948403127584285</v>
       </c>
       <c r="J17" s="1">
         <f>'[1]Pc, 2020, Summer'!J17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.931482180696424</v>
+        <v>28.738333962626779</v>
       </c>
       <c r="K17" s="1">
         <f>'[1]Pc, 2020, Summer'!K17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.146867315601824</v>
+        <v>29.832180584041641</v>
       </c>
       <c r="L17" s="1">
         <f>'[1]Pc, 2020, Summer'!L17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.925888200164479</v>
+        <v>29.633299380148031</v>
       </c>
       <c r="M17" s="1">
         <f>'[1]Pc, 2020, Summer'!M17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.699315104195186</v>
+        <v>30.32938359377567</v>
       </c>
       <c r="N17" s="1">
         <f>'[1]Pc, 2020, Summer'!N17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.699315104195186</v>
+        <v>30.32938359377567</v>
       </c>
       <c r="O17" s="1">
         <f>'[1]Pc, 2020, Summer'!O17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.35665846997528</v>
+        <v>31.820992622977752</v>
       </c>
       <c r="P17" s="1">
         <f>'[1]Pc, 2020, Summer'!P17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.262950853852445</v>
+        <v>29.036655768467202</v>
       </c>
       <c r="Q17" s="1">
         <f>'[1]Pc, 2020, Summer'!Q17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.036377757883152</v>
+        <v>29.732739982094838</v>
       </c>
       <c r="R17" s="1">
         <f>'[1]Pc, 2020, Summer'!R17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.594419527008462</v>
+        <v>29.334977574307615</v>
       </c>
       <c r="S17" s="1">
         <f>'[1]Pc, 2020, Summer'!S17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.594419527008462</v>
+        <v>29.334977574307615</v>
       </c>
       <c r="T17" s="1">
         <f>'[1]Pc, 2020, Summer'!T17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.379034392103058</v>
+        <v>28.241130952892753</v>
       </c>
       <c r="U17" s="1">
         <f>'[1]Pc, 2020, Summer'!U17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.379034392103058</v>
+        <v>28.241130952892753</v>
       </c>
       <c r="V17" s="1">
         <f>'[1]Pc, 2020, Summer'!V17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.047565718947045</v>
+        <v>27.942809147052341</v>
       </c>
       <c r="W17" s="1">
         <f>'[1]Pc, 2020, Summer'!W17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.588825546476514</v>
+        <v>30.229942991828864</v>
       </c>
       <c r="X17" s="1">
         <f>'[1]Pc, 2020, Summer'!X17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.931482180696424</v>
+        <v>28.738333962626779</v>
       </c>
       <c r="Y17" s="1">
         <f>'[1]Pc, 2020, Summer'!Y17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.511899871949513</v>
+        <v>24.760709884754561</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -23697,99 +23697,99 @@
       </c>
       <c r="B18" s="1">
         <f>'[1]Pc, 2020, Summer'!B18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.043361791335331</v>
+        <v>10.839025612201798</v>
       </c>
       <c r="C18" s="1">
         <f>'[1]Pc, 2020, Summer'!C18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.048955771867275</v>
+        <v>9.9440601946805476</v>
       </c>
       <c r="D18" s="1">
         <f>'[1]Pc, 2020, Summer'!D18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.82797665642993</v>
+        <v>9.7451789907869362</v>
       </c>
       <c r="E18" s="1">
         <f>'[1]Pc, 2020, Summer'!E18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.82797665642993</v>
+        <v>9.7451789907869362</v>
       </c>
       <c r="F18" s="1">
         <f>'[1]Pc, 2020, Summer'!F18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.159445329585948</v>
+        <v>10.043500796627352</v>
       </c>
       <c r="G18" s="1">
         <f>'[1]Pc, 2020, Summer'!G18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.380424445023294</v>
+        <v>10.242382000520966</v>
       </c>
       <c r="H18" s="1">
         <f>'[1]Pc, 2020, Summer'!H18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.137069407458165</v>
+        <v>13.623362466712351</v>
       </c>
       <c r="I18" s="1">
         <f>'[1]Pc, 2020, Summer'!I18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.23637100411295</v>
+        <v>15.512733903701653</v>
       </c>
       <c r="J18" s="1">
         <f>'[1]Pc, 2020, Summer'!J18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.788818792706316</v>
+        <v>16.009936913435684</v>
       </c>
       <c r="K18" s="1">
         <f>'[1]Pc, 2020, Summer'!K18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.352454542363567</v>
+        <v>14.717209088127211</v>
       </c>
       <c r="L18" s="1">
         <f>'[1]Pc, 2020, Summer'!L18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.794412773238257</v>
+        <v>15.114971495914432</v>
       </c>
       <c r="M18" s="1">
         <f>'[1]Pc, 2020, Summer'!M18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.004203927611712</v>
+        <v>17.103783534850542</v>
       </c>
       <c r="N18" s="1">
         <f>'[1]Pc, 2020, Summer'!N18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.89371436989304</v>
+        <v>17.004342932903739</v>
       </c>
       <c r="O18" s="1">
         <f>'[1]Pc, 2020, Summer'!O18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.341266581299678</v>
+        <v>16.50713992316971</v>
       </c>
       <c r="P18" s="1">
         <f>'[1]Pc, 2020, Summer'!P18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.567839677268967</v>
+        <v>15.811055709542071</v>
       </c>
       <c r="Q18" s="1">
         <f>'[1]Pc, 2020, Summer'!Q18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.46294410008224</v>
+        <v>14.816649690074016</v>
       </c>
       <c r="R18" s="1">
         <f>'[1]Pc, 2020, Summer'!R18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.015391888675605</v>
+        <v>15.313852699808045</v>
       </c>
       <c r="S18" s="1">
         <f>'[1]Pc, 2020, Summer'!S18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.125881446394278</v>
+        <v>15.41329330175485</v>
       </c>
       <c r="T18" s="1">
         <f>'[1]Pc, 2020, Summer'!T18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.125881446394278</v>
+        <v>15.41329330175485</v>
       </c>
       <c r="U18" s="1">
         <f>'[1]Pc, 2020, Summer'!U18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.352454542363567</v>
+        <v>14.717209088127211</v>
       </c>
       <c r="V18" s="1">
         <f>'[1]Pc, 2020, Summer'!V18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.899308350424985</v>
+        <v>16.109377515382487</v>
       </c>
       <c r="W18" s="1">
         <f>'[1]Pc, 2020, Summer'!W18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.346860561831619</v>
+        <v>15.612174505648458</v>
       </c>
       <c r="X18" s="1">
         <f>'[1]Pc, 2020, Summer'!X18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.474132061146129</v>
+        <v>13.026718855031516</v>
       </c>
       <c r="Y18" s="1">
         <f>'[1]Pc, 2020, Summer'!Y18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.369236483959401</v>
+        <v>12.032312835563463</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -23798,99 +23798,99 @@
       </c>
       <c r="B19" s="1">
         <f>'[1]Pc, 2020, Summer'!B19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.159445329585948</v>
+        <v>10.043500796627352</v>
       </c>
       <c r="C19" s="1">
         <f>'[1]Pc, 2020, Summer'!C19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.165039310117892</v>
+        <v>9.1485353791061037</v>
       </c>
       <c r="D19" s="1">
         <f>'[1]Pc, 2020, Summer'!D19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.7286750597751475</v>
+        <v>7.8558075537976331</v>
       </c>
       <c r="E19" s="1">
         <f>'[1]Pc, 2020, Summer'!E19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.6125915215245286</v>
+        <v>8.6513323693720761</v>
       </c>
       <c r="F19" s="1">
         <f>'[1]Pc, 2020, Summer'!F19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.9440601946805476</v>
+        <v>8.9496541752124923</v>
       </c>
       <c r="G19" s="1">
         <f>'[1]Pc, 2020, Summer'!G19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.606997540992584</v>
+        <v>9.5462977868933265</v>
       </c>
       <c r="H19" s="1">
         <f>'[1]Pc, 2020, Summer'!H19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.474132061146129</v>
+        <v>13.026718855031516</v>
       </c>
       <c r="I19" s="1">
         <f>'[1]Pc, 2020, Summer'!I19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.904902330956933</v>
+        <v>15.214412097861238</v>
       </c>
       <c r="J19" s="1">
         <f>'[1]Pc, 2020, Summer'!J19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.899308350424985</v>
+        <v>16.109377515382487</v>
       </c>
       <c r="K19" s="1">
         <f>'[1]Pc, 2020, Summer'!K19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.567839677268967</v>
+        <v>15.811055709542071</v>
       </c>
       <c r="L19" s="1">
         <f>'[1]Pc, 2020, Summer'!L19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.800006753770203</v>
+        <v>14.220006078393183</v>
       </c>
       <c r="M19" s="1">
         <f>'[1]Pc, 2020, Summer'!M19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.899308350424985</v>
+        <v>16.109377515382487</v>
       </c>
       <c r="N19" s="1">
         <f>'[1]Pc, 2020, Summer'!N19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.457350119550295</v>
+        <v>15.711615107595266</v>
       </c>
       <c r="O19" s="1">
         <f>'[1]Pc, 2020, Summer'!O19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.125881446394278</v>
+        <v>15.41329330175485</v>
       </c>
       <c r="P19" s="1">
         <f>'[1]Pc, 2020, Summer'!P19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.474132061146129</v>
+        <v>13.026718855031516</v>
       </c>
       <c r="Q19" s="1">
         <f>'[1]Pc, 2020, Summer'!Q19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.032173830271438</v>
+        <v>12.628956447244295</v>
       </c>
       <c r="R19" s="1">
         <f>'[1]Pc, 2020, Summer'!R19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.811194714834093</v>
+        <v>12.430075243350684</v>
       </c>
       <c r="S19" s="1">
         <f>'[1]Pc, 2020, Summer'!S19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.70070515711542</v>
+        <v>12.330634641403879</v>
       </c>
       <c r="T19" s="1">
         <f>'[1]Pc, 2020, Summer'!T19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>13.479726041678074</v>
+        <v>12.131753437510268</v>
       </c>
       <c r="U19" s="1">
         <f>'[1]Pc, 2020, Summer'!U19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.91609029202082</v>
+        <v>13.424481262818739</v>
       </c>
       <c r="V19" s="1">
         <f>'[1]Pc, 2020, Summer'!V19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.026579849739493</v>
+        <v>13.523921864765544</v>
       </c>
       <c r="W19" s="1">
         <f>'[1]Pc, 2020, Summer'!W19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.02098586920755</v>
+        <v>14.418887282286795</v>
       </c>
       <c r="X19" s="1">
         <f>'[1]Pc, 2020, Summer'!X19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>14.584621618864801</v>
+        <v>13.126159456978321</v>
       </c>
       <c r="Y19" s="1">
         <f>'[1]Pc, 2020, Summer'!Y19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.485320022210022</v>
+        <v>11.236788019989021</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -23899,35 +23899,35 @@
       </c>
       <c r="B20" s="1">
         <f>'[1]Pc, 2020, Summer'!B20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44195823087469099</v>
+        <v>0.39776240778722194</v>
       </c>
       <c r="C20" s="1">
         <f>'[1]Pc, 2020, Summer'!C20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44195823087469099</v>
+        <v>0.39776240778722194</v>
       </c>
       <c r="D20" s="1">
         <f>'[1]Pc, 2020, Summer'!D20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55244778859336374</v>
+        <v>0.49720300973402737</v>
       </c>
       <c r="E20" s="1">
         <f>'[1]Pc, 2020, Summer'!E20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11048955771867275</v>
+        <v>9.9440601946805485E-2</v>
       </c>
       <c r="F20" s="1">
         <f>'[1]Pc, 2020, Summer'!F20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2209791154373455</v>
+        <v>0.19888120389361097</v>
       </c>
       <c r="G20" s="1">
         <f>'[1]Pc, 2020, Summer'!G20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55244778859336374</v>
+        <v>0.49720300973402737</v>
       </c>
       <c r="H20" s="1">
         <f>'[1]Pc, 2020, Summer'!H20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44195823087469099</v>
+        <v>0.39776240778722194</v>
       </c>
       <c r="I20" s="1">
         <f>'[1]Pc, 2020, Summer'!I20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2209791154373455</v>
+        <v>0.19888120389361097</v>
       </c>
       <c r="J20" s="1">
         <f>'[1]Pc, 2020, Summer'!J20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -23935,31 +23935,31 @@
       </c>
       <c r="K20" s="1">
         <f>'[1]Pc, 2020, Summer'!K20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.66293734631203649</v>
+        <v>-0.59664361168083291</v>
       </c>
       <c r="L20" s="1">
         <f>'[1]Pc, 2020, Summer'!L20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.66293734631203649</v>
+        <v>-0.59664361168083291</v>
       </c>
       <c r="M20" s="1">
         <f>'[1]Pc, 2020, Summer'!M20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.55244778859336374</v>
+        <v>-0.49720300973402737</v>
       </c>
       <c r="N20" s="1">
         <f>'[1]Pc, 2020, Summer'!N20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.55244778859336374</v>
+        <v>-0.49720300973402737</v>
       </c>
       <c r="O20" s="1">
         <f>'[1]Pc, 2020, Summer'!O20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33146867315601825</v>
+        <v>-0.29832180584041645</v>
       </c>
       <c r="P20" s="1">
         <f>'[1]Pc, 2020, Summer'!P20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2209791154373455</v>
+        <v>0.19888120389361097</v>
       </c>
       <c r="Q20" s="1">
         <f>'[1]Pc, 2020, Summer'!Q20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2209791154373455</v>
+        <v>0.19888120389361097</v>
       </c>
       <c r="R20" s="1">
         <f>'[1]Pc, 2020, Summer'!R20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -23971,27 +23971,27 @@
       </c>
       <c r="T20" s="1">
         <f>'[1]Pc, 2020, Summer'!T20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11048955771867275</v>
+        <v>9.9440601946805485E-2</v>
       </c>
       <c r="U20" s="1">
         <f>'[1]Pc, 2020, Summer'!U20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11048955771867275</v>
+        <v>9.9440601946805485E-2</v>
       </c>
       <c r="V20" s="1">
         <f>'[1]Pc, 2020, Summer'!V20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11048955771867275</v>
+        <v>9.9440601946805485E-2</v>
       </c>
       <c r="W20" s="1">
         <f>'[1]Pc, 2020, Summer'!W20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11048955771867275</v>
+        <v>9.9440601946805485E-2</v>
       </c>
       <c r="X20" s="1">
         <f>'[1]Pc, 2020, Summer'!X20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33146867315601825</v>
+        <v>-0.29832180584041645</v>
       </c>
       <c r="Y20" s="1">
         <f>'[1]Pc, 2020, Summer'!Y20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11048955771867275</v>
+        <v>-9.9440601946805485E-2</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -24000,99 +24000,99 @@
       </c>
       <c r="B21" s="1">
         <f>'[1]Pc, 2020, Summer'!B21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.788818792706316</v>
+        <v>16.009936913435684</v>
       </c>
       <c r="C21" s="1">
         <f>'[1]Pc, 2020, Summer'!C21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.683923215519584</v>
+        <v>15.015530893967627</v>
       </c>
       <c r="D21" s="1">
         <f>'[1]Pc, 2020, Summer'!D21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.02098586920755</v>
+        <v>14.418887282286795</v>
       </c>
       <c r="E21" s="1">
         <f>'[1]Pc, 2020, Summer'!E21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.800006753770203</v>
+        <v>14.220006078393183</v>
       </c>
       <c r="F21" s="1">
         <f>'[1]Pc, 2020, Summer'!F21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.241964984644895</v>
+        <v>14.617768486180404</v>
       </c>
       <c r="G21" s="1">
         <f>'[1]Pc, 2020, Summer'!G21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.579027638332857</v>
+        <v>14.021124874499572</v>
       </c>
       <c r="H21" s="1">
         <f>'[1]Pc, 2020, Summer'!H21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.562245696737023</v>
+        <v>16.70602112706332</v>
       </c>
       <c r="I21" s="1">
         <f>'[1]Pc, 2020, Summer'!I21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.213995081985168</v>
+        <v>19.092595573786653</v>
       </c>
       <c r="J21" s="1">
         <f>'[1]Pc, 2020, Summer'!J21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.318890659171895</v>
+        <v>20.087001593254705</v>
       </c>
       <c r="K21" s="1">
         <f>'[1]Pc, 2020, Summer'!K21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.202807120921278</v>
+        <v>20.88252640882915</v>
       </c>
       <c r="L21" s="1">
         <f>'[1]Pc, 2020, Summer'!L21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.970640044420044</v>
+        <v>22.473576039978042</v>
       </c>
       <c r="M21" s="1">
         <f>'[1]Pc, 2020, Summer'!M21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.174837218261551</v>
+        <v>25.357353496435394</v>
       </c>
       <c r="N21" s="1">
         <f>'[1]Pc, 2020, Summer'!N21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.89371436989304</v>
+        <v>17.004342932903739</v>
       </c>
       <c r="O21" s="1">
         <f>'[1]Pc, 2020, Summer'!O21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.412598275294734</v>
+        <v>22.871338447765257</v>
       </c>
       <c r="P21" s="1">
         <f>'[1]Pc, 2020, Summer'!P21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.086723582670661</v>
+        <v>21.678051224403596</v>
       </c>
       <c r="Q21" s="1">
         <f>'[1]Pc, 2020, Summer'!Q21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.423786236358623</v>
+        <v>21.08140761272276</v>
       </c>
       <c r="R21" s="1">
         <f>'[1]Pc, 2020, Summer'!R21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.528681813545351</v>
+        <v>22.075813632190815</v>
       </c>
       <c r="S21" s="1">
         <f>'[1]Pc, 2020, Summer'!S21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.313296678639951</v>
+        <v>20.981967010775957</v>
       </c>
       <c r="T21" s="1">
         <f>'[1]Pc, 2020, Summer'!T21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.213995081985168</v>
+        <v>19.092595573786653</v>
       </c>
       <c r="U21" s="1">
         <f>'[1]Pc, 2020, Summer'!U21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>21.987421986015875</v>
+        <v>19.788679787414289</v>
       </c>
       <c r="V21" s="1">
         <f>'[1]Pc, 2020, Summer'!V21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>22.097911543734551</v>
+        <v>19.888120389361095</v>
       </c>
       <c r="W21" s="1">
         <f>'[1]Pc, 2020, Summer'!W21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>23.423786236358623</v>
+        <v>21.08140761272276</v>
       </c>
       <c r="X21" s="1">
         <f>'[1]Pc, 2020, Summer'!X21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>18.89371436989304</v>
+        <v>17.004342932903739</v>
       </c>
       <c r="Y21" s="1">
         <f>'[1]Pc, 2020, Summer'!Y21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.23637100411295</v>
+        <v>15.512733903701653</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -24101,99 +24101,99 @@
       </c>
       <c r="B22" s="1">
         <f>'[1]Pc, 2020, Summer'!B22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8727285006854917</v>
+        <v>2.5854556506169426</v>
       </c>
       <c r="C22" s="1">
         <f>'[1]Pc, 2020, Summer'!C22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5412598275294731</v>
+        <v>2.2871338447765259</v>
       </c>
       <c r="D22" s="1">
         <f>'[1]Pc, 2020, Summer'!D22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4363642503427458</v>
+        <v>1.2927278253084713</v>
       </c>
       <c r="E22" s="1">
         <f>'[1]Pc, 2020, Summer'!E22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4363642503427458</v>
+        <v>1.2927278253084713</v>
       </c>
       <c r="F22" s="1">
         <f>'[1]Pc, 2020, Summer'!F22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2153851349054003</v>
+        <v>1.0938466214148603</v>
       </c>
       <c r="G22" s="1">
         <f>'[1]Pc, 2020, Summer'!G22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2153851349054003</v>
+        <v>1.0938466214148603</v>
       </c>
       <c r="H22" s="1">
         <f>'[1]Pc, 2020, Summer'!H22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1986031933095642</v>
+        <v>3.778742873978608</v>
       </c>
       <c r="I22" s="1">
         <f>'[1]Pc, 2020, Summer'!I22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.8503525785577102</v>
+        <v>6.1653173207019396</v>
       </c>
       <c r="J22" s="1">
         <f>'[1]Pc, 2020, Summer'!J22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.8447585980257646</v>
+        <v>7.0602827382231883</v>
       </c>
       <c r="K22" s="1">
         <f>'[1]Pc, 2020, Summer'!K22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.8447585980257646</v>
+        <v>7.0602827382231883</v>
       </c>
       <c r="L22" s="1">
         <f>'[1]Pc, 2020, Summer'!L22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.8503525785577102</v>
+        <v>6.1653173207019396</v>
       </c>
       <c r="M22" s="1">
         <f>'[1]Pc, 2020, Summer'!M22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.618185502056475</v>
+        <v>7.7563669518508265</v>
       </c>
       <c r="N22" s="1">
         <f>'[1]Pc, 2020, Summer'!N22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0713316939950559</v>
+        <v>6.364198524595551</v>
       </c>
       <c r="O22" s="1">
         <f>'[1]Pc, 2020, Summer'!O22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9608421362763826</v>
+        <v>6.2647579226487444</v>
       </c>
       <c r="P22" s="1">
         <f>'[1]Pc, 2020, Summer'!P22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0769256745270015</v>
+        <v>5.4692331070743014</v>
       </c>
       <c r="Q22" s="1">
         <f>'[1]Pc, 2020, Summer'!Q22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0769256745270015</v>
+        <v>5.4692331070743014</v>
       </c>
       <c r="R22" s="1">
         <f>'[1]Pc, 2020, Summer'!R22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7454570013709834</v>
+        <v>5.1709113012338852</v>
       </c>
       <c r="S22" s="1">
         <f>'[1]Pc, 2020, Summer'!S22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9664361168083291</v>
+        <v>5.3697925051274957</v>
       </c>
       <c r="T22" s="1">
         <f>'[1]Pc, 2020, Summer'!T22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7454570013709834</v>
+        <v>5.1709113012338852</v>
       </c>
       <c r="U22" s="1">
         <f>'[1]Pc, 2020, Summer'!U22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1874152322456739</v>
+        <v>5.5686737090211063</v>
       </c>
       <c r="V22" s="1">
         <f>'[1]Pc, 2020, Summer'!V22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2923108094324007</v>
+        <v>6.5630797284891607</v>
       </c>
       <c r="W22" s="1">
         <f>'[1]Pc, 2020, Summer'!W22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.402800367151074</v>
+        <v>6.6625203304359673</v>
       </c>
       <c r="X22" s="1">
         <f>'[1]Pc, 2020, Summer'!X22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8559465590896558</v>
+        <v>5.27035190318069</v>
       </c>
       <c r="Y22" s="1">
         <f>'[1]Pc, 2020, Summer'!Y22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8671345201535461</v>
+        <v>3.4804210681381913</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -24202,99 +24202,99 @@
       </c>
       <c r="B23" s="1">
         <f>'[1]Pc, 2020, Summer'!B23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9720300973402738</v>
+        <v>4.4748270876062461</v>
       </c>
       <c r="C23" s="1">
         <f>'[1]Pc, 2020, Summer'!C23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9664361168083291</v>
+        <v>5.3697925051274957</v>
       </c>
       <c r="D23" s="1">
         <f>'[1]Pc, 2020, Summer'!D23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9664361168083291</v>
+        <v>5.3697925051274957</v>
       </c>
       <c r="E23" s="1">
         <f>'[1]Pc, 2020, Summer'!E23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9664361168083291</v>
+        <v>5.3697925051274957</v>
       </c>
       <c r="F23" s="1">
         <f>'[1]Pc, 2020, Summer'!F23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9664361168083291</v>
+        <v>5.3697925051274957</v>
       </c>
       <c r="G23" s="1">
         <f>'[1]Pc, 2020, Summer'!G23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8559465590896558</v>
+        <v>5.27035190318069</v>
       </c>
       <c r="H23" s="1">
         <f>'[1]Pc, 2020, Summer'!H23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7398630208390369</v>
+        <v>6.0658767187551339</v>
       </c>
       <c r="I23" s="1">
         <f>'[1]Pc, 2020, Summer'!I23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7398630208390369</v>
+        <v>6.0658767187551339</v>
       </c>
       <c r="J23" s="1">
         <f>'[1]Pc, 2020, Summer'!J23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7398630208390369</v>
+        <v>6.0658767187551339</v>
       </c>
       <c r="K23" s="1">
         <f>'[1]Pc, 2020, Summer'!K23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7398630208390369</v>
+        <v>6.0658767187551339</v>
       </c>
       <c r="L23" s="1">
         <f>'[1]Pc, 2020, Summer'!L23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.7342690403070922</v>
+        <v>6.9608421362763826</v>
       </c>
       <c r="M23" s="1">
         <f>'[1]Pc, 2020, Summer'!M23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.7342690403070922</v>
+        <v>6.9608421362763826</v>
       </c>
       <c r="N23" s="1">
         <f>'[1]Pc, 2020, Summer'!N23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.7342690403070922</v>
+        <v>6.9608421362763826</v>
       </c>
       <c r="O23" s="1">
         <f>'[1]Pc, 2020, Summer'!O23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.7342690403070922</v>
+        <v>6.9608421362763826</v>
       </c>
       <c r="P23" s="1">
         <f>'[1]Pc, 2020, Summer'!P23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.8503525785577102</v>
+        <v>6.1653173207019396</v>
       </c>
       <c r="Q23" s="1">
         <f>'[1]Pc, 2020, Summer'!Q23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.8503525785577102</v>
+        <v>6.1653173207019396</v>
       </c>
       <c r="R23" s="1">
         <f>'[1]Pc, 2020, Summer'!R23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.8503525785577102</v>
+        <v>6.1653173207019396</v>
       </c>
       <c r="S23" s="1">
         <f>'[1]Pc, 2020, Summer'!S23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9608421362763826</v>
+        <v>6.2647579226487444</v>
       </c>
       <c r="T23" s="1">
         <f>'[1]Pc, 2020, Summer'!T23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9608421362763826</v>
+        <v>6.2647579226487444</v>
       </c>
       <c r="U23" s="1">
         <f>'[1]Pc, 2020, Summer'!U23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9608421362763826</v>
+        <v>6.2647579226487444</v>
       </c>
       <c r="V23" s="1">
         <f>'[1]Pc, 2020, Summer'!V23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9608421362763826</v>
+        <v>6.2647579226487444</v>
       </c>
       <c r="W23" s="1">
         <f>'[1]Pc, 2020, Summer'!W23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0713316939950559</v>
+        <v>6.364198524595551</v>
       </c>
       <c r="X23" s="1">
         <f>'[1]Pc, 2020, Summer'!X23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0713316939950559</v>
+        <v>6.364198524595551</v>
       </c>
       <c r="Y23" s="1">
         <f>'[1]Pc, 2020, Summer'!Y23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0769256745270015</v>
+        <v>5.4692331070743014</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -24303,99 +24303,99 @@
       </c>
       <c r="B24" s="1">
         <f>'[1]Pc, 2020, Summer'!B24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.9776240778722189</v>
+        <v>-3.5798616700849974</v>
       </c>
       <c r="C24" s="1">
         <f>'[1]Pc, 2020, Summer'!C24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-21.655953312859861</v>
+        <v>-19.490357981573872</v>
       </c>
       <c r="D24" s="1">
         <f>'[1]Pc, 2020, Summer'!D24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-24.970640044420044</v>
+        <v>-22.473576039978042</v>
       </c>
       <c r="E24" s="1">
         <f>'[1]Pc, 2020, Summer'!E24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-27.180431198793499</v>
+        <v>-24.462388078914149</v>
       </c>
       <c r="F24" s="1">
         <f>'[1]Pc, 2020, Summer'!F24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-16.131475426926222</v>
+        <v>-14.518327884233599</v>
       </c>
       <c r="G24" s="1">
         <f>'[1]Pc, 2020, Summer'!G24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-29.390222353166951</v>
+        <v>-26.451200117850256</v>
       </c>
       <c r="H24" s="1">
         <f>'[1]Pc, 2020, Summer'!H24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.5021019638058561</v>
+        <v>-8.5518917674252712</v>
       </c>
       <c r="I24" s="1">
         <f>'[1]Pc, 2020, Summer'!I24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-12.816788695366039</v>
+        <v>-11.535109825829434</v>
       </c>
       <c r="J24" s="1">
         <f>'[1]Pc, 2020, Summer'!J24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-16.131475426926222</v>
+        <v>-14.518327884233599</v>
       </c>
       <c r="K24" s="1">
         <f>'[1]Pc, 2020, Summer'!K24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0713316939950559</v>
+        <v>6.364198524595551</v>
       </c>
       <c r="L24" s="1">
         <f>'[1]Pc, 2020, Summer'!L24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.490914002741967</v>
+        <v>10.34182260246777</v>
       </c>
       <c r="M24" s="1">
         <f>'[1]Pc, 2020, Summer'!M24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.225183043049057</v>
+        <v>17.302664738744152</v>
       </c>
       <c r="N24" s="1">
         <f>'[1]Pc, 2020, Summer'!N24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>49.057363627090702</v>
+        <v>44.151627264381631</v>
       </c>
       <c r="O24" s="1">
         <f>'[1]Pc, 2020, Summer'!O24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>78.889544211132346</v>
+        <v>71.00058979001912</v>
       </c>
       <c r="P24" s="1">
         <f>'[1]Pc, 2020, Summer'!P24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>75.574857479572159</v>
+        <v>68.017371731614958</v>
       </c>
       <c r="Q24" s="1">
         <f>'[1]Pc, 2020, Summer'!Q24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>70.050379593638525</v>
+        <v>63.045341634274671</v>
       </c>
       <c r="R24" s="1">
         <f>'[1]Pc, 2020, Summer'!R24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>65.630797284891614</v>
+        <v>59.067717556402449</v>
       </c>
       <c r="S24" s="1">
         <f>'[1]Pc, 2020, Summer'!S24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>63.421006130518158</v>
+        <v>57.078905517466339</v>
       </c>
       <c r="T24" s="1">
         <f>'[1]Pc, 2020, Summer'!T24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>30.274138814916331</v>
+        <v>27.246724933424701</v>
       </c>
       <c r="U24" s="1">
         <f>'[1]Pc, 2020, Summer'!U24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>36.903512278036693</v>
+        <v>33.213161050233026</v>
       </c>
       <c r="V24" s="1">
         <f>'[1]Pc, 2020, Summer'!V24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>59.001423821771247</v>
+        <v>53.101281439594125</v>
       </c>
       <c r="W24" s="1">
         <f>'[1]Pc, 2020, Summer'!W24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>70.050379593638525</v>
+        <v>63.045341634274671</v>
       </c>
       <c r="X24" s="1">
         <f>'[1]Pc, 2020, Summer'!X24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>70.050379593638525</v>
+        <v>63.045341634274671</v>
       </c>
       <c r="Y24" s="1">
         <f>'[1]Pc, 2020, Summer'!Y24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>76.679753056758898</v>
+        <v>69.011777751083002</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -24404,99 +24404,99 @@
       </c>
       <c r="B25" s="1">
         <f>'[1]Pc, 2020, Summer'!B25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.566449624348735</v>
+        <v>33.809804661913866</v>
       </c>
       <c r="C25" s="1">
         <f>'[1]Pc, 2020, Summer'!C25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.2461689122566</v>
+        <v>31.721552021030941</v>
       </c>
       <c r="D25" s="1">
         <f>'[1]Pc, 2020, Summer'!D25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.925888200164486</v>
+        <v>29.633299380148035</v>
       </c>
       <c r="E25" s="1">
         <f>'[1]Pc, 2020, Summer'!E25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.356658469975272</v>
+        <v>31.820992622977748</v>
       </c>
       <c r="F25" s="1">
         <f>'[1]Pc, 2020, Summer'!F25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>31.379034392103055</v>
+        <v>28.24113095289275</v>
       </c>
       <c r="G25" s="1">
         <f>'[1]Pc, 2020, Summer'!G25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>27.953858102824203</v>
+        <v>25.158472292541784</v>
       </c>
       <c r="H25" s="1">
         <f>'[1]Pc, 2020, Summer'!H25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>38.339876528379449</v>
+        <v>34.505888875541501</v>
       </c>
       <c r="I25" s="1">
         <f>'[1]Pc, 2020, Summer'!I25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>43.09092751028237</v>
+        <v>38.781834759254139</v>
       </c>
       <c r="J25" s="1">
         <f>'[1]Pc, 2020, Summer'!J25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>55.023799743899026</v>
+        <v>49.521419769509123</v>
       </c>
       <c r="K25" s="1">
         <f>'[1]Pc, 2020, Summer'!K25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>55.023799743899033</v>
+        <v>49.521419769509137</v>
       </c>
       <c r="L25" s="1">
         <f>'[1]Pc, 2020, Summer'!L25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>60.769256745270013</v>
+        <v>54.692331070743009</v>
       </c>
       <c r="M25" s="1">
         <f>'[1]Pc, 2020, Summer'!M25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>62.316110553331427</v>
+        <v>56.084499497998287</v>
       </c>
       <c r="N25" s="1">
         <f>'[1]Pc, 2020, Summer'!N25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>62.868558341924789</v>
+        <v>56.581702507732317</v>
       </c>
       <c r="O25" s="1">
         <f>'[1]Pc, 2020, Summer'!O25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>74.580451460104101</v>
+        <v>67.122406314093695</v>
       </c>
       <c r="P25" s="1">
         <f>'[1]Pc, 2020, Summer'!P25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>76.348284383602859</v>
+        <v>68.713455945242586</v>
       </c>
       <c r="Q25" s="1">
         <f>'[1]Pc, 2020, Summer'!Q25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>69.387442247326476</v>
+        <v>62.448698022593831</v>
       </c>
       <c r="R25" s="1">
         <f>'[1]Pc, 2020, Summer'!R25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>65.851776400328959</v>
+        <v>59.266598760296063</v>
       </c>
       <c r="S25" s="1">
         <f>'[1]Pc, 2020, Summer'!S25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>60.327298514395331</v>
+        <v>54.294568662955797</v>
       </c>
       <c r="T25" s="1">
         <f>'[1]Pc, 2020, Summer'!T25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>54.802820628461674</v>
+        <v>49.32253856561551</v>
       </c>
       <c r="U25" s="1">
         <f>'[1]Pc, 2020, Summer'!U25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>59.995829841239299</v>
+        <v>53.996246857115366</v>
       </c>
       <c r="V25" s="1">
         <f>'[1]Pc, 2020, Summer'!V25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>49.057363627090709</v>
+        <v>44.151627264381638</v>
       </c>
       <c r="W25" s="1">
         <f>'[1]Pc, 2020, Summer'!W25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>51.267154781464143</v>
+        <v>46.140439303317727</v>
       </c>
       <c r="X25" s="1">
         <f>'[1]Pc, 2020, Summer'!X25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>61.984641880175417</v>
+        <v>55.786177692157871</v>
       </c>
       <c r="Y25" s="1">
         <f>'[1]Pc, 2020, Summer'!Y25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>49.941280088840081</v>
+        <v>44.947152079956076</v>
       </c>
     </row>
   </sheetData>
@@ -34661,75 +34661,75 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Qc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66293734631203649</v>
+        <v>0.59664361168083291</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Qc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8615405396216014</v>
+        <v>4.3753864856594413</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Qc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.651749385248146</v>
+        <v>2.3865744467233316</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Qc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66293734631203649</v>
+        <v>0.59664361168083291</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Qc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3314686731560183</v>
+        <v>0.29832180584041651</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Qc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6629373463120366</v>
+        <v>0.59664361168083302</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Qc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66293734631203649</v>
+        <v>0.59664361168083291</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Qc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1048955771867275</v>
+        <v>0.99440601946805474</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Qc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1048955771867275</v>
+        <v>0.99440601946805474</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Qc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6461554047162004</v>
+        <v>3.2815398642445803</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Qc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77342690403070924</v>
+        <v>0.69608421362763828</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Qc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6573433657800911</v>
+        <v>1.4916090292020823</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Qc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66293734631203649</v>
+        <v>0.59664361168083291</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Qc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1048955771867275</v>
+        <v>0.99440601946805474</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Qc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9832180584041645</v>
+        <v>2.6848962525637479</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Qc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99440601946805474</v>
+        <v>0.89496541752124936</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Qc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77342690403070924</v>
+        <v>0.69608421362763828</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Qc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66293734631203649</v>
+        <v>0.59664361168083291</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Qc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -34737,15 +34737,15 @@
       </c>
       <c r="U2" s="1">
         <f>'[1]Qc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44195823087469099</v>
+        <v>0.39776240778722194</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Qc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44195823087469099</v>
+        <v>0.39776240778722194</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Qc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88391646174938199</v>
+        <v>0.79552481557444388</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Qc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -34762,99 +34762,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Qc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1048955771867275</v>
+        <v>-0.99440601946805474</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Qc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9888120389361095</v>
+        <v>-1.7899308350424987</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Qc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9888120389361095</v>
+        <v>-1.7899308350424987</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Qc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6573433657800911</v>
+        <v>-1.4916090292020823</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Qc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6573433657800911</v>
+        <v>-1.4916090292020823</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Qc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.209791154373455</v>
+        <v>-1.9888120389361095</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Qc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4363642503427458</v>
+        <v>-1.2927278253084713</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Qc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2153851349054003</v>
+        <v>1.0938466214148603</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Qc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.651749385248146</v>
+        <v>2.3865744467233316</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Qc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4363642503427458</v>
+        <v>1.2927278253084713</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Qc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4307702698108007</v>
+        <v>2.1876932428297207</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Qc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.651749385248146</v>
+        <v>2.3865744467233316</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Qc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.651749385248146</v>
+        <v>2.3865744467233316</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Qc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5412598275294731</v>
+        <v>2.2871338447765259</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Qc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33146867315601825</v>
+        <v>0.29832180584041645</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Qc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77342690403070924</v>
+        <v>0.69608421362763828</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Qc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1048955771867275</v>
+        <v>0.99440601946805474</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Qc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9888120389361095</v>
+        <v>1.7899308350424987</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Qc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0993015966547821</v>
+        <v>1.889371436989304</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Qc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99440601946805474</v>
+        <v>0.89496541752124936</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Qc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88391646174938199</v>
+        <v>0.79552481557444388</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Qc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44195823087469099</v>
+        <v>0.39776240778722194</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Qc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2209791154373455</v>
+        <v>0.19888120389361097</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Qc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11048955771867275</v>
+        <v>-9.9440601946805485E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -34863,79 +34863,79 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Qc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.093707616122837</v>
+        <v>-2.7843368545105531</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Qc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.9832180584041645</v>
+        <v>-2.6848962525637479</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Qc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.0881136355908918</v>
+        <v>-3.6793022720318023</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Qc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.0881136355908918</v>
+        <v>-3.6793022720318023</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Qc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.4195823087469099</v>
+        <v>-3.9776240778722189</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Qc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.6461554047162004</v>
+        <v>-3.2815398642445803</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Qc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44195823087469099</v>
+        <v>-0.39776240778722194</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Qc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7622389429668188</v>
+        <v>2.4860150486701369</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Qc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8727285006854917</v>
+        <v>2.5854556506169426</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Qc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5412598275294731</v>
+        <v>2.2871338447765259</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Qc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3202807120921278</v>
+        <v>2.088252640882915</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Qc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8671345201535461</v>
+        <v>3.4804210681381913</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Qc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4251762892788551</v>
+        <v>3.0826586603509698</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Qc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.535665846997528</v>
+        <v>3.1820992622977755</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Qc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.3202807120921278</v>
+        <v>-2.088252640882915</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Qc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99440601946805462</v>
+        <v>0.89496541752124925</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Qc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88391646174938199</v>
+        <v>0.79552481557444388</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Qc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33146867315601825</v>
+        <v>0.29832180584041645</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Qc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.55244778859336374</v>
+        <v>-0.49720300973402737</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Qc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -34943,19 +34943,19 @@
       </c>
       <c r="V4" s="1">
         <f>'[1]Qc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44195823087469099</v>
+        <v>-0.39776240778722194</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Qc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.88391646174938199</v>
+        <v>-0.79552481557444388</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Qc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.0993015966547821</v>
+        <v>-1.889371436989304</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Qc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.8727285006854917</v>
+        <v>-2.5854556506169426</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -34964,99 +34964,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Qc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.6629373463120366</v>
+        <v>-0.59664361168083302</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Qc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1048955771867277</v>
+        <v>-0.99440601946805496</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Qc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8783224812174366</v>
+        <v>-1.690490233095693</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Qc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8783224812174366</v>
+        <v>-1.690490233095693</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Qc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7678329234987638</v>
+        <v>-1.5910496311488875</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Qc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.1986031933095642</v>
+        <v>-3.778742873978608</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Qc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9888120389361095</v>
+        <v>-1.7899308350424987</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Qc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2097911543734545</v>
+        <v>1.9888120389361092</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Qc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4307702698108007</v>
+        <v>2.1876932428297207</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Qc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.5132899248697465</v>
+        <v>6.7619609323827721</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Qc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9608421362763826</v>
+        <v>6.2647579226487444</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Qc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5021019638058561</v>
+        <v>8.5518917674252712</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Qc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.165039310117892</v>
+        <v>9.1485353791061037</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Qc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.0601437329311647</v>
+        <v>8.1541293596380484</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Qc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2979047899643454</v>
+        <v>5.668114310967912</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Qc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3034987704962919</v>
+        <v>4.7731488934466633</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Qc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5300718664655824</v>
+        <v>4.0770646798190242</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Qc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4139883282149652</v>
+        <v>4.8725894953934681</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Qc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3146867315601818</v>
+        <v>2.9832180584041641</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Qc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6461554047162008</v>
+        <v>3.2815398642445808</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Qc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4307702698108007</v>
+        <v>2.1876932428297207</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Qc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9776240778722194</v>
+        <v>3.5798616700849979</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Qc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9832180584041645</v>
+        <v>2.6848962525637479</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Qc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3258746926240728</v>
+        <v>1.1932872233616656</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -35065,99 +35065,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Qc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2153851349054003</v>
+        <v>1.0938466214148603</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Qc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88391646174938199</v>
+        <v>0.79552481557444388</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Qc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99440601946805462</v>
+        <v>0.89496541752124925</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Qc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55244778859336374</v>
+        <v>0.49720300973402737</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Qc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55244778859336374</v>
+        <v>0.49720300973402737</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Qc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2209791154373455</v>
+        <v>-0.19888120389361097</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Qc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77342690403070924</v>
+        <v>0.69608421362763828</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Qc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4307702698108007</v>
+        <v>2.1876932428297207</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Qc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4307702698108007</v>
+        <v>2.1876932428297207</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Qc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5412598275294731</v>
+        <v>2.2871338447765259</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Qc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5412598275294731</v>
+        <v>2.2871338447765259</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Qc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2041971738415098</v>
+        <v>2.8837774564573584</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Qc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9832180584041645</v>
+        <v>2.6848962525637479</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Qc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8727285006854917</v>
+        <v>2.5854556506169426</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Qc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.651749385248146</v>
+        <v>2.3865744467233316</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Qc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9888120389361092</v>
+        <v>1.7899308350424985</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Qc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8783224812174368</v>
+        <v>1.6904902330956932</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Qc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0993015966547821</v>
+        <v>1.889371436989304</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Qc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8783224812174368</v>
+        <v>1.6904902330956932</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Qc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9888120389361092</v>
+        <v>1.7899308350424985</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Qc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.767832923498764</v>
+        <v>1.5910496311488878</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Qc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.209791154373455</v>
+        <v>1.9888120389361095</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Qc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4307702698108007</v>
+        <v>2.1876932428297207</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Qc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8783224812174368</v>
+        <v>1.6904902330956932</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -35166,99 +35166,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Qc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>111.04200550726611</v>
+        <v>99.937804956539509</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Qc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>111.70494285357815</v>
+        <v>100.53444856822033</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Qc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>113.03081754620221</v>
+        <v>101.72773579158199</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Qc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>113.91473400795159</v>
+        <v>102.52326060715643</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Qc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>114.13571312338894</v>
+        <v>102.72214181105005</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Qc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>114.3566922388263</v>
+        <v>102.92102301494367</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Qc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>111.81543241129683</v>
+        <v>100.63388917016714</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Qc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>107.83780833342459</v>
+        <v>97.054027500082142</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Qc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>105.95948585220717</v>
+        <v>95.363537266986455</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Qc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>102.75528867836566</v>
+        <v>92.479759810529089</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Qc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>103.52871558239637</v>
+        <v>93.175844024156731</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Qc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>102.31333044749096</v>
+        <v>92.081997402741877</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Qc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>103.52871558239637</v>
+        <v>93.175844024156731</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Qc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>103.30773646695901</v>
+        <v>92.976962820263125</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Qc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>104.6336111595831</v>
+        <v>94.17025004362479</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Qc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>106.6224231985192</v>
+        <v>95.960180878667288</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Qc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>106.84340231395655</v>
+        <v>96.159062082560894</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Qc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>106.29095452536319</v>
+        <v>95.661859072826857</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Qc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>107.0643814293939</v>
+        <v>96.357943286454514</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Qc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>106.18046496764451</v>
+        <v>95.562418470880061</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Qc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>107.94829789114328</v>
+        <v>97.153468102028953</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Qc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>106.73291275623787</v>
+        <v>96.059621480614084</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Qc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>107.17487098711257</v>
+        <v>96.45738388840131</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Qc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>107.61682921798726</v>
+        <v>96.855146296188536</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -35267,99 +35267,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Qc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.749660928982696</v>
+        <v>22.274694836084425</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Qc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.904902330956933</v>
+        <v>15.214412097861238</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Qc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.579027638332857</v>
+        <v>14.021124874499572</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Qc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.683923215519584</v>
+        <v>15.015530893967627</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Qc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.882526408829147</v>
+        <v>18.794273767946233</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Qc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.330078620235785</v>
+        <v>18.297070758212207</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Qc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.19721314038933</v>
+        <v>21.777491826350399</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Qc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>20.882526408829147</v>
+        <v>18.794273767946233</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Qc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>19.777630831642419</v>
+        <v>17.799867748478178</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Qc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>24.086723582670661</v>
+        <v>21.678051224403596</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Qc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>26.517493852481458</v>
+        <v>23.865744467233316</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Qc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>25.523087833013406</v>
+        <v>22.970779049712068</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Qc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.506305891417568</v>
+        <v>25.655675302275814</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Qc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.500711910885624</v>
+        <v>26.550640719797062</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Qc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>28.395816333698896</v>
+        <v>25.556234700329007</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Qc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>32.925888200164479</v>
+        <v>29.633299380148031</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Qc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>35.135679354537935</v>
+        <v>31.622111419084142</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Qc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>37.234980951192718</v>
+        <v>33.511482856073449</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Qc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.809804661913866</v>
+        <v>30.428824195722477</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Qc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>34.251762892788555</v>
+        <v>30.8265866035097</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Qc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.920294219632531</v>
+        <v>30.52826479766928</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Qc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>29.390222353166951</v>
+        <v>26.451200117850256</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Qc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>33.699315104195186</v>
+        <v>30.32938359377567</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Qc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>36.903512278036693</v>
+        <v>33.213161050233026</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -35368,99 +35368,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Qc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.9440601946805476</v>
+        <v>-8.9496541752124923</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Qc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-10.275528867836567</v>
+        <v>-9.2479759810529103</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Qc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-10.05454975239922</v>
+        <v>-9.0490947771592971</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Qc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-10.275528867836567</v>
+        <v>-9.2479759810529103</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Qc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-10.165039310117892</v>
+        <v>-9.1485353791061037</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Qc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-11.490914002741967</v>
+        <v>-10.34182260246777</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Qc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.6125915215245286</v>
+        <v>-8.6513323693720761</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Qc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.535665846997528</v>
+        <v>-3.1820992622977755</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Qc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.651749385248146</v>
+        <v>-2.3865744467233316</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Qc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6573433657800911</v>
+        <v>-1.4916090292020823</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Qc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8783224812174368</v>
+        <v>-1.6904902330956932</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Qc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55244778859336374</v>
+        <v>0.49720300973402737</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Qc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8783224812174368</v>
+        <v>1.6904902330956932</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Qc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.767832923498764</v>
+        <v>1.5910496311488878</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Qc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44195823087469088</v>
+        <v>-0.39776240778722183</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Qc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.3146867315601822</v>
+        <v>-2.9832180584041645</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Qc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.0993015966547821</v>
+        <v>-1.889371436989304</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Qc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.2041971738415098</v>
+        <v>-2.8837774564573584</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Qc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.8615405396216014</v>
+        <v>-4.3753864856594413</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Qc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.3146867315601822</v>
+        <v>-2.9832180584041645</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Qc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.3034987704962919</v>
+        <v>-4.7731488934466633</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Qc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.535665846997528</v>
+        <v>-3.1820992622977755</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Qc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.8559465590896558</v>
+        <v>-5.27035190318069</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Qc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.6293734631203645</v>
+        <v>-5.9664361168083291</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -35469,99 +35469,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Qc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-37.566449624348735</v>
+        <v>-33.809804661913866</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Qc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-44.195823087469101</v>
+        <v>-39.77624077872219</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Qc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-46.405614241842557</v>
+        <v>-41.765052817658301</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Qc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-48.615405396216012</v>
+        <v>-43.753864856594411</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Qc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-46.405614241842557</v>
+        <v>-41.765052817658301</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Qc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-68.503525785577111</v>
+        <v>-61.6531732070194</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Qc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-51.930092127776192</v>
+        <v>-46.737082914998574</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Qc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-26.517493852481458</v>
+        <v>-23.865744467233316</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Qc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.7342690403070922</v>
+        <v>-6.9608421362763826</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Qc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.3146867315601822</v>
+        <v>-2.9832180584041645</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Qc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1048955771867275</v>
+        <v>0.99440601946805474</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Qc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1048955771867275</v>
+        <v>0.99440601946805474</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Qc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.573433657800912</v>
+        <v>14.91609029202082</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Qc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.468538080614184</v>
+        <v>13.921684272552765</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Qc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>15.468538080614184</v>
+        <v>13.921684272552765</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Qc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.6293734631203645</v>
+        <v>-5.9664361168083291</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Qc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1048955771867275</v>
+        <v>-0.99440601946805474</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Qc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.6293734631203645</v>
+        <v>-5.9664361168083291</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Qc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-18.783224812174367</v>
+        <v>-16.904902330956933</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Qc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-17.67832923498764</v>
+        <v>-15.910496311488876</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Qc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-16.573433657800912</v>
+        <v>-14.91609029202082</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Qc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-12.153851349054003</v>
+        <v>-10.938466214148603</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Qc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-18.783224812174367</v>
+        <v>-16.904902330956933</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Qc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-28.727285006854913</v>
+        <v>-25.854556506169427</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -35570,99 +35570,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Qc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.286716828900456</v>
+        <v>-7.4580451460104102</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Qc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.0657377134631112</v>
+        <v>-7.2591639421167997</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Qc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.0657377134631112</v>
+        <v>-7.2591639421167997</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Qc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.7342690403070922</v>
+        <v>-6.9608421362763826</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Qc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.8447585980257646</v>
+        <v>-7.0602827382231883</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Qc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.5132899248697465</v>
+        <v>-6.7619609323827721</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Qc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.8447585980257646</v>
+        <v>-7.0602827382231883</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Qc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.8503525785577102</v>
+        <v>-6.1653173207019396</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Qc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.0713316939950559</v>
+        <v>-6.364198524595551</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Qc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.0657377134631112</v>
+        <v>-7.2591639421167997</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Qc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.9552481557444379</v>
+        <v>-7.1597233401699949</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Qc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.1818212517137283</v>
+        <v>-6.4636391265423567</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Qc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.0769256745270015</v>
+        <v>-5.4692331070743014</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Qc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.2979047899643472</v>
+        <v>-5.668114310967912</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Qc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.286716828900456</v>
+        <v>-7.4580451460104102</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Qc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.6293734631203645</v>
+        <v>-5.9664361168083291</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Qc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.1818212517137283</v>
+        <v>-6.4636391265423567</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Qc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.6293734631203645</v>
+        <v>-5.9664361168083291</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Qc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.9552481557444379</v>
+        <v>-7.1597233401699949</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Qc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.7398630208390369</v>
+        <v>-6.0658767187551339</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Qc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.7342690403070922</v>
+        <v>-6.9608421362763826</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Qc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.4083943476830196</v>
+        <v>-5.7675549129147168</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Qc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.6237794825884198</v>
+        <v>6.8614015343295787</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Qc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.1818212517137283</v>
+        <v>-6.4636391265423567</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -35671,99 +35671,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Qc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.77342690403070924</v>
+        <v>-0.69608421362763828</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Qc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.99440601946805462</v>
+        <v>-0.89496541752124925</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Qc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.99440601946805462</v>
+        <v>-0.89496541752124925</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Qc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.77342690403070924</v>
+        <v>-0.69608421362763828</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Qc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.88391646174938199</v>
+        <v>-0.79552481557444388</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Qc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1048955771867275</v>
+        <v>-0.99440601946805474</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Qc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.767832923498764</v>
+        <v>1.5910496311488878</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Qc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1986031933095642</v>
+        <v>3.778742873978608</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Qc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8615405396216014</v>
+        <v>4.3753864856594413</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Qc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3090927510282375</v>
+        <v>3.8781834759254132</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Qc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.419582308746909</v>
+        <v>3.9776240778722181</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Qc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9664361168083291</v>
+        <v>5.3697925051274957</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Qc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6349674436523101</v>
+        <v>5.0714706992870786</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Qc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5244778859336376</v>
+        <v>4.9720300973402738</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Qc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7566449624348737</v>
+        <v>3.3809804661913865</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Qc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9832180584041645</v>
+        <v>2.6848962525637479</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Qc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8727285006854912</v>
+        <v>2.5854556506169422</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Qc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0993015966547821</v>
+        <v>1.889371436989304</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Qc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0993015966547821</v>
+        <v>1.889371436989304</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Qc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8783224812174368</v>
+        <v>1.6904902330956932</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Qc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4363642503427458</v>
+        <v>1.2927278253084713</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Qc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7622389429668188</v>
+        <v>2.4860150486701369</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Qc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1048955771867277</v>
+        <v>0.99440601946805496</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Qc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1104895577186726</v>
+        <v>-9.9440601946805346E-2</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -35772,43 +35772,43 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Qc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2153851349054001</v>
+        <v>-1.0938466214148601</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Qc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.325874692624073</v>
+        <v>-1.1932872233616658</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Qc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4363642503427458</v>
+        <v>-1.2927278253084713</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Qc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4363642503427458</v>
+        <v>-1.2927278253084713</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Qc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4363642503427458</v>
+        <v>-1.2927278253084713</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Qc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6573433657800911</v>
+        <v>-1.4916090292020823</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Qc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2153851349054003</v>
+        <v>-1.0938466214148603</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Qc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44195823087469099</v>
+        <v>-0.39776240778722194</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Qc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22097911543734544</v>
+        <v>-0.19888120389361091</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Qc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11048955771867285</v>
+        <v>9.9440601946805568E-2</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Qc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -35816,7 +35816,7 @@
       </c>
       <c r="M13" s="1">
         <f>'[1]Qc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.22097911543734558</v>
+        <v>0.19888120389361102</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Qc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -35828,43 +35828,43 @@
       </c>
       <c r="P13" s="1">
         <f>'[1]Qc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11048955771867272</v>
+        <v>9.9440601946805457E-2</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Qc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.6629373463120366</v>
+        <v>-0.59664361168083302</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Qc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.6629373463120366</v>
+        <v>-0.59664361168083302</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Qc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.77342690403070924</v>
+        <v>-0.69608421362763828</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Qc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.88391646174938199</v>
+        <v>-0.79552481557444388</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Qc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.88391646174938199</v>
+        <v>-0.79552481557444388</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Qc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1048955771867273</v>
+        <v>-0.99440601946805462</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Qc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.99440601946805474</v>
+        <v>-0.89496541752124936</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Qc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1048955771867273</v>
+        <v>-0.99440601946805462</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Qc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1048955771867273</v>
+        <v>-0.99440601946805462</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -35873,99 +35873,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Qc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8783224812174366</v>
+        <v>-1.690490233095693</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Qc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8783224812174366</v>
+        <v>-1.690490233095693</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Qc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9888120389361095</v>
+        <v>-1.7899308350424987</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Qc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9888120389361095</v>
+        <v>-1.7899308350424987</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Qc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9888120389361095</v>
+        <v>-1.7899308350424987</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Qc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.0993015966547821</v>
+        <v>-1.889371436989304</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Qc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.767832923498764</v>
+        <v>-1.5910496311488878</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Qc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2153851349054003</v>
+        <v>-1.0938466214148603</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Qc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.767832923498764</v>
+        <v>-1.5910496311488878</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Qc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6573433657800911</v>
+        <v>-1.4916090292020823</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Qc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.767832923498764</v>
+        <v>-1.5910496311488878</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Qc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.325874692624073</v>
+        <v>-1.1932872233616658</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Qc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1048955771867275</v>
+        <v>-0.99440601946805474</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Qc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.325874692624073</v>
+        <v>-1.1932872233616658</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Qc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.99440601946805474</v>
+        <v>-0.89496541752124936</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Qc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5468538080614185</v>
+        <v>-1.3921684272552766</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Qc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4363642503427458</v>
+        <v>-1.2927278253084713</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Qc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2153851349054003</v>
+        <v>-1.0938466214148603</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Qc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9888120389361095</v>
+        <v>-1.7899308350424987</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Qc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5468538080614185</v>
+        <v>-1.3921684272552766</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Qc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6573433657800911</v>
+        <v>-1.4916090292020823</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Qc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2153851349054003</v>
+        <v>-1.0938466214148603</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Qc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6573433657800911</v>
+        <v>-1.4916090292020823</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Qc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5468538080614185</v>
+        <v>-1.3921684272552766</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -35974,99 +35974,99 @@
       </c>
       <c r="B15" s="1">
         <f>'[1]Qc, 2020, Summer'!B15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.55244778859336374</v>
+        <v>-0.49720300973402737</v>
       </c>
       <c r="C15" s="1">
         <f>'[1]Qc, 2020, Summer'!C15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.66293734631203649</v>
+        <v>-0.59664361168083291</v>
       </c>
       <c r="D15" s="1">
         <f>'[1]Qc, 2020, Summer'!D15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.55244778859336374</v>
+        <v>-0.49720300973402737</v>
       </c>
       <c r="E15" s="1">
         <f>'[1]Qc, 2020, Summer'!E15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.66293734631203649</v>
+        <v>-0.59664361168083291</v>
       </c>
       <c r="F15" s="1">
         <f>'[1]Qc, 2020, Summer'!F15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.55244778859336374</v>
+        <v>-0.49720300973402737</v>
       </c>
       <c r="G15" s="1">
         <f>'[1]Qc, 2020, Summer'!G15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.66293734631203649</v>
+        <v>-0.59664361168083291</v>
       </c>
       <c r="H15" s="1">
         <f>'[1]Qc, 2020, Summer'!H15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1048955771867275</v>
+        <v>-0.99440601946805474</v>
       </c>
       <c r="I15" s="1">
         <f>'[1]Qc, 2020, Summer'!I15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33146867315601825</v>
+        <v>-0.29832180584041645</v>
       </c>
       <c r="J15" s="1">
         <f>'[1]Qc, 2020, Summer'!J15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44195823087469099</v>
+        <v>-0.39776240778722194</v>
       </c>
       <c r="K15" s="1">
         <f>'[1]Qc, 2020, Summer'!K15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.55244778859336374</v>
+        <v>-0.49720300973402737</v>
       </c>
       <c r="L15" s="1">
         <f>'[1]Qc, 2020, Summer'!L15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44195823087469099</v>
+        <v>-0.39776240778722194</v>
       </c>
       <c r="M15" s="1">
         <f>'[1]Qc, 2020, Summer'!M15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.55244778859336374</v>
+        <v>-0.49720300973402737</v>
       </c>
       <c r="N15" s="1">
         <f>'[1]Qc, 2020, Summer'!N15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33146867315601825</v>
+        <v>-0.29832180584041645</v>
       </c>
       <c r="O15" s="1">
         <f>'[1]Qc, 2020, Summer'!O15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2209791154373455</v>
+        <v>-0.19888120389361097</v>
       </c>
       <c r="P15" s="1">
         <f>'[1]Qc, 2020, Summer'!P15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2209791154373455</v>
+        <v>-0.19888120389361097</v>
       </c>
       <c r="Q15" s="1">
         <f>'[1]Qc, 2020, Summer'!Q15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11048955771867275</v>
+        <v>-9.9440601946805485E-2</v>
       </c>
       <c r="R15" s="1">
         <f>'[1]Qc, 2020, Summer'!R15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88391646174938199</v>
+        <v>0.79552481557444388</v>
       </c>
       <c r="S15" s="1">
         <f>'[1]Qc, 2020, Summer'!S15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88391646174938199</v>
+        <v>0.79552481557444388</v>
       </c>
       <c r="T15" s="1">
         <f>'[1]Qc, 2020, Summer'!T15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11048955771867275</v>
+        <v>-9.9440601946805485E-2</v>
       </c>
       <c r="U15" s="1">
         <f>'[1]Qc, 2020, Summer'!U15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11048955771867275</v>
+        <v>-9.9440601946805485E-2</v>
       </c>
       <c r="V15" s="1">
         <f>'[1]Qc, 2020, Summer'!V15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11048955771867275</v>
+        <v>-9.9440601946805485E-2</v>
       </c>
       <c r="W15" s="1">
         <f>'[1]Qc, 2020, Summer'!W15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2209791154373455</v>
+        <v>-0.19888120389361097</v>
       </c>
       <c r="X15" s="1">
         <f>'[1]Qc, 2020, Summer'!X15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33146867315601825</v>
+        <v>-0.29832180584041645</v>
       </c>
       <c r="Y15" s="1">
         <f>'[1]Qc, 2020, Summer'!Y15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.88391646174938199</v>
+        <v>-0.79552481557444388</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -36075,35 +36075,35 @@
       </c>
       <c r="B16" s="1">
         <f>'[1]Qc, 2020, Summer'!B16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4363642503427458</v>
+        <v>-1.2927278253084713</v>
       </c>
       <c r="C16" s="1">
         <f>'[1]Qc, 2020, Summer'!C16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.767832923498764</v>
+        <v>-1.5910496311488878</v>
       </c>
       <c r="D16" s="1">
         <f>'[1]Qc, 2020, Summer'!D16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6573433657800911</v>
+        <v>-1.4916090292020823</v>
       </c>
       <c r="E16" s="1">
         <f>'[1]Qc, 2020, Summer'!E16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5468538080614185</v>
+        <v>-1.3921684272552766</v>
       </c>
       <c r="F16" s="1">
         <f>'[1]Qc, 2020, Summer'!F16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6573433657800911</v>
+        <v>-1.4916090292020823</v>
       </c>
       <c r="G16" s="1">
         <f>'[1]Qc, 2020, Summer'!G16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.8783224812174366</v>
+        <v>-1.690490233095693</v>
       </c>
       <c r="H16" s="1">
         <f>'[1]Qc, 2020, Summer'!H16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4363642503427458</v>
+        <v>-1.2927278253084713</v>
       </c>
       <c r="I16" s="1">
         <f>'[1]Qc, 2020, Summer'!I16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.77342690403070924</v>
+        <v>-0.69608421362763828</v>
       </c>
       <c r="J16" s="1">
         <f>'[1]Qc, 2020, Summer'!J16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36119,7 +36119,7 @@
       </c>
       <c r="M16" s="1">
         <f>'[1]Qc, 2020, Summer'!M16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11048955771867275</v>
+        <v>-9.9440601946805485E-2</v>
       </c>
       <c r="N16" s="1">
         <f>'[1]Qc, 2020, Summer'!N16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36127,11 +36127,11 @@
       </c>
       <c r="O16" s="1">
         <f>'[1]Qc, 2020, Summer'!O16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55244778859336374</v>
+        <v>0.49720300973402737</v>
       </c>
       <c r="P16" s="1">
         <f>'[1]Qc, 2020, Summer'!P16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44195823087469099</v>
+        <v>0.39776240778722194</v>
       </c>
       <c r="Q16" s="1">
         <f>'[1]Qc, 2020, Summer'!Q16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36139,35 +36139,35 @@
       </c>
       <c r="R16" s="1">
         <f>'[1]Qc, 2020, Summer'!R16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.66293734631203649</v>
+        <v>-0.59664361168083291</v>
       </c>
       <c r="S16" s="1">
         <f>'[1]Qc, 2020, Summer'!S16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.66293734631203649</v>
+        <v>-0.59664361168083291</v>
       </c>
       <c r="T16" s="1">
         <f>'[1]Qc, 2020, Summer'!T16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33146867315601825</v>
+        <v>-0.29832180584041645</v>
       </c>
       <c r="U16" s="1">
         <f>'[1]Qc, 2020, Summer'!U16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44195823087469099</v>
+        <v>-0.39776240778722194</v>
       </c>
       <c r="V16" s="1">
         <f>'[1]Qc, 2020, Summer'!V16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44195823087469099</v>
+        <v>-0.39776240778722194</v>
       </c>
       <c r="W16" s="1">
         <f>'[1]Qc, 2020, Summer'!W16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.66293734631203649</v>
+        <v>-0.59664361168083291</v>
       </c>
       <c r="X16" s="1">
         <f>'[1]Qc, 2020, Summer'!X16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.66293734631203649</v>
+        <v>-0.59664361168083291</v>
       </c>
       <c r="Y16" s="1">
         <f>'[1]Qc, 2020, Summer'!Y16*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.325874692624073</v>
+        <v>-1.1932872233616658</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -36176,99 +36176,99 @@
       </c>
       <c r="B17" s="1">
         <f>'[1]Qc, 2020, Summer'!B17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44195823087469099</v>
+        <v>-0.39776240778722194</v>
       </c>
       <c r="C17" s="1">
         <f>'[1]Qc, 2020, Summer'!C17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.55244778859336374</v>
+        <v>-0.49720300973402737</v>
       </c>
       <c r="D17" s="1">
         <f>'[1]Qc, 2020, Summer'!D17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1048955771867275</v>
+        <v>-0.99440601946805474</v>
       </c>
       <c r="E17" s="1">
         <f>'[1]Qc, 2020, Summer'!E17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1048955771867275</v>
+        <v>-0.99440601946805474</v>
       </c>
       <c r="F17" s="1">
         <f>'[1]Qc, 2020, Summer'!F17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5468538080614187</v>
+        <v>-1.3921684272552768</v>
       </c>
       <c r="G17" s="1">
         <f>'[1]Qc, 2020, Summer'!G17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5468538080614187</v>
+        <v>-1.3921684272552768</v>
       </c>
       <c r="H17" s="1">
         <f>'[1]Qc, 2020, Summer'!H17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44195823087469099</v>
+        <v>0.39776240778722194</v>
       </c>
       <c r="I17" s="1">
         <f>'[1]Qc, 2020, Summer'!I17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.651749385248146</v>
+        <v>2.3865744467233316</v>
       </c>
       <c r="J17" s="1">
         <f>'[1]Qc, 2020, Summer'!J17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7566449624348737</v>
+        <v>3.3809804661913865</v>
       </c>
       <c r="K17" s="1">
         <f>'[1]Qc, 2020, Summer'!K17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4195823087469099</v>
+        <v>3.9776240778722189</v>
       </c>
       <c r="L17" s="1">
         <f>'[1]Qc, 2020, Summer'!L17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.535665846997528</v>
+        <v>3.1820992622977755</v>
       </c>
       <c r="M17" s="1">
         <f>'[1]Qc, 2020, Summer'!M17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4139883282149652</v>
+        <v>4.8725894953934681</v>
       </c>
       <c r="N17" s="1">
         <f>'[1]Qc, 2020, Summer'!N17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1930092127776195</v>
+        <v>4.6737082914998576</v>
       </c>
       <c r="O17" s="1">
         <f>'[1]Qc, 2020, Summer'!O17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4139883282149652</v>
+        <v>4.8725894953934681</v>
       </c>
       <c r="P17" s="1">
         <f>'[1]Qc, 2020, Summer'!P17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8615405396216014</v>
+        <v>4.3753864856594413</v>
       </c>
       <c r="Q17" s="1">
         <f>'[1]Qc, 2020, Summer'!Q17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7566449624348737</v>
+        <v>3.3809804661913865</v>
       </c>
       <c r="R17" s="1">
         <f>'[1]Qc, 2020, Summer'!R17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4251762892788546</v>
+        <v>3.0826586603509694</v>
       </c>
       <c r="S17" s="1">
         <f>'[1]Qc, 2020, Summer'!S17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7566449624348737</v>
+        <v>3.3809804661913865</v>
       </c>
       <c r="T17" s="1">
         <f>'[1]Qc, 2020, Summer'!T17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0937076161228374</v>
+        <v>2.7843368545105536</v>
       </c>
       <c r="U17" s="1">
         <f>'[1]Qc, 2020, Summer'!U17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.535665846997528</v>
+        <v>3.1820992622977755</v>
       </c>
       <c r="V17" s="1">
         <f>'[1]Qc, 2020, Summer'!V17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7622389429668188</v>
+        <v>2.4860150486701369</v>
       </c>
       <c r="W17" s="1">
         <f>'[1]Qc, 2020, Summer'!W17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8727285006854917</v>
+        <v>2.5854556506169426</v>
       </c>
       <c r="X17" s="1">
         <f>'[1]Qc, 2020, Summer'!X17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.325874692624073</v>
+        <v>1.1932872233616658</v>
       </c>
       <c r="Y17" s="1">
         <f>'[1]Qc, 2020, Summer'!Y17*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66293734631203649</v>
+        <v>0.59664361168083291</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -36277,35 +36277,35 @@
       </c>
       <c r="B18" s="1">
         <f>'[1]Qc, 2020, Summer'!B18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9888120389361095</v>
+        <v>-1.7899308350424987</v>
       </c>
       <c r="C18" s="1">
         <f>'[1]Qc, 2020, Summer'!C18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9888120389361095</v>
+        <v>-1.7899308350424987</v>
       </c>
       <c r="D18" s="1">
         <f>'[1]Qc, 2020, Summer'!D18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.3202807120921278</v>
+        <v>-2.088252640882915</v>
       </c>
       <c r="E18" s="1">
         <f>'[1]Qc, 2020, Summer'!E18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.3202807120921278</v>
+        <v>-2.088252640882915</v>
       </c>
       <c r="F18" s="1">
         <f>'[1]Qc, 2020, Summer'!F18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.4307702698108007</v>
+        <v>-2.1876932428297207</v>
       </c>
       <c r="G18" s="1">
         <f>'[1]Qc, 2020, Summer'!G18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.4307702698108007</v>
+        <v>-2.1876932428297207</v>
       </c>
       <c r="H18" s="1">
         <f>'[1]Qc, 2020, Summer'!H18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.99440601946805474</v>
+        <v>-0.89496541752124936</v>
       </c>
       <c r="I18" s="1">
         <f>'[1]Qc, 2020, Summer'!I18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44195823087469099</v>
+        <v>-0.39776240778722194</v>
       </c>
       <c r="J18" s="1">
         <f>'[1]Qc, 2020, Summer'!J18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36313,19 +36313,19 @@
       </c>
       <c r="K18" s="1">
         <f>'[1]Qc, 2020, Summer'!K18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33146867315601825</v>
+        <v>-0.29832180584041645</v>
       </c>
       <c r="L18" s="1">
         <f>'[1]Qc, 2020, Summer'!L18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.66293734631203649</v>
+        <v>-0.59664361168083291</v>
       </c>
       <c r="M18" s="1">
         <f>'[1]Qc, 2020, Summer'!M18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33146867315601825</v>
+        <v>-0.29832180584041645</v>
       </c>
       <c r="N18" s="1">
         <f>'[1]Qc, 2020, Summer'!N18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2209791154373455</v>
+        <v>0.19888120389361097</v>
       </c>
       <c r="O18" s="1">
         <f>'[1]Qc, 2020, Summer'!O18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36333,19 +36333,19 @@
       </c>
       <c r="P18" s="1">
         <f>'[1]Qc, 2020, Summer'!P18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11048955771867275</v>
+        <v>-9.9440601946805485E-2</v>
       </c>
       <c r="Q18" s="1">
         <f>'[1]Qc, 2020, Summer'!Q18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.66293734631203649</v>
+        <v>-0.59664361168083291</v>
       </c>
       <c r="R18" s="1">
         <f>'[1]Qc, 2020, Summer'!R18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33146867315601825</v>
+        <v>-0.29832180584041645</v>
       </c>
       <c r="S18" s="1">
         <f>'[1]Qc, 2020, Summer'!S18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11048955771867275</v>
+        <v>9.9440601946805485E-2</v>
       </c>
       <c r="T18" s="1">
         <f>'[1]Qc, 2020, Summer'!T18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -36353,23 +36353,23 @@
       </c>
       <c r="U18" s="1">
         <f>'[1]Qc, 2020, Summer'!U18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.99440601946805474</v>
+        <v>-0.89496541752124936</v>
       </c>
       <c r="V18" s="1">
         <f>'[1]Qc, 2020, Summer'!V18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.66293734631203649</v>
+        <v>-0.59664361168083291</v>
       </c>
       <c r="W18" s="1">
         <f>'[1]Qc, 2020, Summer'!W18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.66293734631203649</v>
+        <v>-0.59664361168083291</v>
       </c>
       <c r="X18" s="1">
         <f>'[1]Qc, 2020, Summer'!X18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5468538080614185</v>
+        <v>-1.3921684272552766</v>
       </c>
       <c r="Y18" s="1">
         <f>'[1]Qc, 2020, Summer'!Y18*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6573433657800911</v>
+        <v>-1.4916090292020823</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -36378,99 +36378,99 @@
       </c>
       <c r="B19" s="1">
         <f>'[1]Qc, 2020, Summer'!B19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.99440601946805474</v>
+        <v>-0.89496541752124936</v>
       </c>
       <c r="C19" s="1">
         <f>'[1]Qc, 2020, Summer'!C19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.325874692624073</v>
+        <v>-1.1932872233616658</v>
       </c>
       <c r="D19" s="1">
         <f>'[1]Qc, 2020, Summer'!D19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4363642503427458</v>
+        <v>-1.2927278253084713</v>
       </c>
       <c r="E19" s="1">
         <f>'[1]Qc, 2020, Summer'!E19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2153851349054003</v>
+        <v>-1.0938466214148603</v>
       </c>
       <c r="F19" s="1">
         <f>'[1]Qc, 2020, Summer'!F19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1048955771867275</v>
+        <v>-0.99440601946805474</v>
       </c>
       <c r="G19" s="1">
         <f>'[1]Qc, 2020, Summer'!G19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.99440601946805474</v>
+        <v>-0.89496541752124936</v>
       </c>
       <c r="H19" s="1">
         <f>'[1]Qc, 2020, Summer'!H19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2209791154373455</v>
+        <v>-0.19888120389361097</v>
       </c>
       <c r="I19" s="1">
         <f>'[1]Qc, 2020, Summer'!I19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6573433657800911</v>
+        <v>1.4916090292020823</v>
       </c>
       <c r="J19" s="1">
         <f>'[1]Qc, 2020, Summer'!J19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6573433657800911</v>
+        <v>1.4916090292020823</v>
       </c>
       <c r="K19" s="1">
         <f>'[1]Qc, 2020, Summer'!K19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9888120389361095</v>
+        <v>1.7899308350424987</v>
       </c>
       <c r="L19" s="1">
         <f>'[1]Qc, 2020, Summer'!L19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5468538080614185</v>
+        <v>1.3921684272552766</v>
       </c>
       <c r="M19" s="1">
         <f>'[1]Qc, 2020, Summer'!M19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.209791154373455</v>
+        <v>1.9888120389361095</v>
       </c>
       <c r="N19" s="1">
         <f>'[1]Qc, 2020, Summer'!N19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4307702698108007</v>
+        <v>2.1876932428297207</v>
       </c>
       <c r="O19" s="1">
         <f>'[1]Qc, 2020, Summer'!O19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3202807120921278</v>
+        <v>2.088252640882915</v>
       </c>
       <c r="P19" s="1">
         <f>'[1]Qc, 2020, Summer'!P19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8783224812174366</v>
+        <v>1.690490233095693</v>
       </c>
       <c r="Q19" s="1">
         <f>'[1]Qc, 2020, Summer'!Q19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4363642503427458</v>
+        <v>1.2927278253084713</v>
       </c>
       <c r="R19" s="1">
         <f>'[1]Qc, 2020, Summer'!R19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99440601946805474</v>
+        <v>0.89496541752124936</v>
       </c>
       <c r="S19" s="1">
         <f>'[1]Qc, 2020, Summer'!S19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88391646174938199</v>
+        <v>0.79552481557444388</v>
       </c>
       <c r="T19" s="1">
         <f>'[1]Qc, 2020, Summer'!T19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77342690403070924</v>
+        <v>0.69608421362763828</v>
       </c>
       <c r="U19" s="1">
         <f>'[1]Qc, 2020, Summer'!U19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99440601946805474</v>
+        <v>0.89496541752124936</v>
       </c>
       <c r="V19" s="1">
         <f>'[1]Qc, 2020, Summer'!V19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88391646174938199</v>
+        <v>0.79552481557444388</v>
       </c>
       <c r="W19" s="1">
         <f>'[1]Qc, 2020, Summer'!W19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55244778859336374</v>
+        <v>0.49720300973402737</v>
       </c>
       <c r="X19" s="1">
         <f>'[1]Qc, 2020, Summer'!X19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33146867315601825</v>
+        <v>0.29832180584041645</v>
       </c>
       <c r="Y19" s="1">
         <f>'[1]Qc, 2020, Summer'!Y19*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2209791154373455</v>
+        <v>-0.19888120389361097</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -36479,99 +36479,99 @@
       </c>
       <c r="B20" s="1">
         <f>'[1]Qc, 2020, Summer'!B20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0993015966547821</v>
+        <v>1.889371436989304</v>
       </c>
       <c r="C20" s="1">
         <f>'[1]Qc, 2020, Summer'!C20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8783224812174366</v>
+        <v>1.690490233095693</v>
       </c>
       <c r="D20" s="1">
         <f>'[1]Qc, 2020, Summer'!D20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88391646174938199</v>
+        <v>0.79552481557444388</v>
       </c>
       <c r="E20" s="1">
         <f>'[1]Qc, 2020, Summer'!E20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5468538080614185</v>
+        <v>1.3921684272552766</v>
       </c>
       <c r="F20" s="1">
         <f>'[1]Qc, 2020, Summer'!F20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6573433657800911</v>
+        <v>1.4916090292020823</v>
       </c>
       <c r="G20" s="1">
         <f>'[1]Qc, 2020, Summer'!G20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88391646174938199</v>
+        <v>0.79552481557444388</v>
       </c>
       <c r="H20" s="1">
         <f>'[1]Qc, 2020, Summer'!H20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5412598275294731</v>
+        <v>2.2871338447765259</v>
       </c>
       <c r="I20" s="1">
         <f>'[1]Qc, 2020, Summer'!I20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9888120389361095</v>
+        <v>1.7899308350424987</v>
       </c>
       <c r="J20" s="1">
         <f>'[1]Qc, 2020, Summer'!J20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0993015966547821</v>
+        <v>1.889371436989304</v>
       </c>
       <c r="K20" s="1">
         <f>'[1]Qc, 2020, Summer'!K20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5412598275294731</v>
+        <v>2.2871338447765259</v>
       </c>
       <c r="L20" s="1">
         <f>'[1]Qc, 2020, Summer'!L20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4307702698108007</v>
+        <v>2.1876932428297207</v>
       </c>
       <c r="M20" s="1">
         <f>'[1]Qc, 2020, Summer'!M20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7622389429668188</v>
+        <v>2.4860150486701369</v>
       </c>
       <c r="N20" s="1">
         <f>'[1]Qc, 2020, Summer'!N20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8727285006854917</v>
+        <v>2.5854556506169426</v>
       </c>
       <c r="O20" s="1">
         <f>'[1]Qc, 2020, Summer'!O20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7622389429668188</v>
+        <v>2.4860150486701369</v>
       </c>
       <c r="P20" s="1">
         <f>'[1]Qc, 2020, Summer'!P20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3202807120921278</v>
+        <v>2.088252640882915</v>
       </c>
       <c r="Q20" s="1">
         <f>'[1]Qc, 2020, Summer'!Q20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5412598275294731</v>
+        <v>2.2871338447765259</v>
       </c>
       <c r="R20" s="1">
         <f>'[1]Qc, 2020, Summer'!R20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7622389429668188</v>
+        <v>2.4860150486701369</v>
       </c>
       <c r="S20" s="1">
         <f>'[1]Qc, 2020, Summer'!S20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7622389429668188</v>
+        <v>2.4860150486701369</v>
       </c>
       <c r="T20" s="1">
         <f>'[1]Qc, 2020, Summer'!T20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5412598275294731</v>
+        <v>2.2871338447765259</v>
       </c>
       <c r="U20" s="1">
         <f>'[1]Qc, 2020, Summer'!U20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4307702698108007</v>
+        <v>2.1876932428297207</v>
       </c>
       <c r="V20" s="1">
         <f>'[1]Qc, 2020, Summer'!V20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.651749385248146</v>
+        <v>2.3865744467233316</v>
       </c>
       <c r="W20" s="1">
         <f>'[1]Qc, 2020, Summer'!W20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.651749385248146</v>
+        <v>2.3865744467233316</v>
       </c>
       <c r="X20" s="1">
         <f>'[1]Qc, 2020, Summer'!X20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5412598275294731</v>
+        <v>2.2871338447765259</v>
       </c>
       <c r="Y20" s="1">
         <f>'[1]Qc, 2020, Summer'!Y20*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7622389429668188</v>
+        <v>2.4860150486701369</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -36580,99 +36580,99 @@
       </c>
       <c r="B21" s="1">
         <f>'[1]Qc, 2020, Summer'!B21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.55244778859336374</v>
+        <v>-0.49720300973402737</v>
       </c>
       <c r="C21" s="1">
         <f>'[1]Qc, 2020, Summer'!C21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.88391646174938199</v>
+        <v>-0.79552481557444388</v>
       </c>
       <c r="D21" s="1">
         <f>'[1]Qc, 2020, Summer'!D21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.88391646174938199</v>
+        <v>-0.79552481557444388</v>
       </c>
       <c r="E21" s="1">
         <f>'[1]Qc, 2020, Summer'!E21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.99440601946805474</v>
+        <v>-0.89496541752124936</v>
       </c>
       <c r="F21" s="1">
         <f>'[1]Qc, 2020, Summer'!F21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.77342690403070924</v>
+        <v>-0.69608421362763828</v>
       </c>
       <c r="G21" s="1">
         <f>'[1]Qc, 2020, Summer'!G21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4363642503427458</v>
+        <v>-1.2927278253084713</v>
       </c>
       <c r="H21" s="1">
         <f>'[1]Qc, 2020, Summer'!H21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.88391646174938199</v>
+        <v>-0.79552481557444388</v>
       </c>
       <c r="I21" s="1">
         <f>'[1]Qc, 2020, Summer'!I21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44195823087469099</v>
+        <v>0.39776240778722194</v>
       </c>
       <c r="J21" s="1">
         <f>'[1]Qc, 2020, Summer'!J21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4363642503427458</v>
+        <v>1.2927278253084713</v>
       </c>
       <c r="K21" s="1">
         <f>'[1]Qc, 2020, Summer'!K21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.325874692624073</v>
+        <v>1.1932872233616658</v>
       </c>
       <c r="L21" s="1">
         <f>'[1]Qc, 2020, Summer'!L21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66293734631203649</v>
+        <v>0.59664361168083291</v>
       </c>
       <c r="M21" s="1">
         <f>'[1]Qc, 2020, Summer'!M21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8783224812174366</v>
+        <v>1.690490233095693</v>
       </c>
       <c r="N21" s="1">
         <f>'[1]Qc, 2020, Summer'!N21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4363642503427458</v>
+        <v>1.2927278253084713</v>
       </c>
       <c r="O21" s="1">
         <f>'[1]Qc, 2020, Summer'!O21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8783224812174366</v>
+        <v>1.690490233095693</v>
       </c>
       <c r="P21" s="1">
         <f>'[1]Qc, 2020, Summer'!P21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.767832923498764</v>
+        <v>1.5910496311488878</v>
       </c>
       <c r="Q21" s="1">
         <f>'[1]Qc, 2020, Summer'!Q21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66293734631203649</v>
+        <v>0.59664361168083291</v>
       </c>
       <c r="R21" s="1">
         <f>'[1]Qc, 2020, Summer'!R21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2153851349054003</v>
+        <v>1.0938466214148603</v>
       </c>
       <c r="S21" s="1">
         <f>'[1]Qc, 2020, Summer'!S21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77342690403070924</v>
+        <v>0.69608421362763828</v>
       </c>
       <c r="T21" s="1">
         <f>'[1]Qc, 2020, Summer'!T21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55244778859336374</v>
+        <v>0.49720300973402737</v>
       </c>
       <c r="U21" s="1">
         <f>'[1]Qc, 2020, Summer'!U21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66293734631203649</v>
+        <v>0.59664361168083291</v>
       </c>
       <c r="V21" s="1">
         <f>'[1]Qc, 2020, Summer'!V21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66293734631203649</v>
+        <v>0.59664361168083291</v>
       </c>
       <c r="W21" s="1">
         <f>'[1]Qc, 2020, Summer'!W21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33146867315601825</v>
+        <v>0.29832180584041645</v>
       </c>
       <c r="X21" s="1">
         <f>'[1]Qc, 2020, Summer'!X21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33146867315601825</v>
+        <v>-0.29832180584041645</v>
       </c>
       <c r="Y21" s="1">
         <f>'[1]Qc, 2020, Summer'!Y21*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.325874692624073</v>
+        <v>-1.1932872233616658</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -36681,99 +36681,99 @@
       </c>
       <c r="B22" s="1">
         <f>'[1]Qc, 2020, Summer'!B22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.66293734631203649</v>
+        <v>-0.59664361168083291</v>
       </c>
       <c r="C22" s="1">
         <f>'[1]Qc, 2020, Summer'!C22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.88391646174938199</v>
+        <v>-0.79552481557444388</v>
       </c>
       <c r="D22" s="1">
         <f>'[1]Qc, 2020, Summer'!D22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.99440601946805474</v>
+        <v>-0.89496541752124936</v>
       </c>
       <c r="E22" s="1">
         <f>'[1]Qc, 2020, Summer'!E22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.99440601946805474</v>
+        <v>-0.89496541752124936</v>
       </c>
       <c r="F22" s="1">
         <f>'[1]Qc, 2020, Summer'!F22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.88391646174938199</v>
+        <v>-0.79552481557444388</v>
       </c>
       <c r="G22" s="1">
         <f>'[1]Qc, 2020, Summer'!G22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.99440601946805474</v>
+        <v>-0.89496541752124936</v>
       </c>
       <c r="H22" s="1">
         <f>'[1]Qc, 2020, Summer'!H22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11048955771867275</v>
+        <v>-9.9440601946805485E-2</v>
       </c>
       <c r="I22" s="1">
         <f>'[1]Qc, 2020, Summer'!I22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99440601946805474</v>
+        <v>0.89496541752124936</v>
       </c>
       <c r="J22" s="1">
         <f>'[1]Qc, 2020, Summer'!J22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4363642503427458</v>
+        <v>1.2927278253084713</v>
       </c>
       <c r="K22" s="1">
         <f>'[1]Qc, 2020, Summer'!K22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2153851349054003</v>
+        <v>1.0938466214148603</v>
       </c>
       <c r="L22" s="1">
         <f>'[1]Qc, 2020, Summer'!L22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99440601946805474</v>
+        <v>0.89496541752124936</v>
       </c>
       <c r="M22" s="1">
         <f>'[1]Qc, 2020, Summer'!M22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5468538080614185</v>
+        <v>1.3921684272552766</v>
       </c>
       <c r="N22" s="1">
         <f>'[1]Qc, 2020, Summer'!N22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4363642503427458</v>
+        <v>1.2927278253084713</v>
       </c>
       <c r="O22" s="1">
         <f>'[1]Qc, 2020, Summer'!O22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.325874692624073</v>
+        <v>1.1932872233616658</v>
       </c>
       <c r="P22" s="1">
         <f>'[1]Qc, 2020, Summer'!P22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.325874692624073</v>
+        <v>1.1932872233616658</v>
       </c>
       <c r="Q22" s="1">
         <f>'[1]Qc, 2020, Summer'!Q22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99440601946805474</v>
+        <v>0.89496541752124936</v>
       </c>
       <c r="R22" s="1">
         <f>'[1]Qc, 2020, Summer'!R22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99440601946805474</v>
+        <v>0.89496541752124936</v>
       </c>
       <c r="S22" s="1">
         <f>'[1]Qc, 2020, Summer'!S22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1048955771867275</v>
+        <v>0.99440601946805474</v>
       </c>
       <c r="T22" s="1">
         <f>'[1]Qc, 2020, Summer'!T22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99440601946805474</v>
+        <v>0.89496541752124936</v>
       </c>
       <c r="U22" s="1">
         <f>'[1]Qc, 2020, Summer'!U22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99440601946805474</v>
+        <v>0.89496541752124936</v>
       </c>
       <c r="V22" s="1">
         <f>'[1]Qc, 2020, Summer'!V22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88391646174938199</v>
+        <v>0.79552481557444388</v>
       </c>
       <c r="W22" s="1">
         <f>'[1]Qc, 2020, Summer'!W22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88391646174938199</v>
+        <v>0.79552481557444388</v>
       </c>
       <c r="X22" s="1">
         <f>'[1]Qc, 2020, Summer'!X22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66293734631203649</v>
+        <v>0.59664361168083291</v>
       </c>
       <c r="Y22" s="1">
         <f>'[1]Qc, 2020, Summer'!Y22*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2209791154373455</v>
+        <v>-0.19888120389361097</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -36782,99 +36782,99 @@
       </c>
       <c r="B23" s="1">
         <f>'[1]Qc, 2020, Summer'!B23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99440601946805474</v>
+        <v>0.89496541752124936</v>
       </c>
       <c r="C23" s="1">
         <f>'[1]Qc, 2020, Summer'!C23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5468538080614185</v>
+        <v>1.3921684272552766</v>
       </c>
       <c r="D23" s="1">
         <f>'[1]Qc, 2020, Summer'!D23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5468538080614185</v>
+        <v>1.3921684272552766</v>
       </c>
       <c r="E23" s="1">
         <f>'[1]Qc, 2020, Summer'!E23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5468538080614185</v>
+        <v>1.3921684272552766</v>
       </c>
       <c r="F23" s="1">
         <f>'[1]Qc, 2020, Summer'!F23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8783224812174366</v>
+        <v>1.690490233095693</v>
       </c>
       <c r="G23" s="1">
         <f>'[1]Qc, 2020, Summer'!G23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8783224812174366</v>
+        <v>1.690490233095693</v>
       </c>
       <c r="H23" s="1">
         <f>'[1]Qc, 2020, Summer'!H23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5468538080614185</v>
+        <v>1.3921684272552766</v>
       </c>
       <c r="I23" s="1">
         <f>'[1]Qc, 2020, Summer'!I23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4363642503427458</v>
+        <v>1.2927278253084713</v>
       </c>
       <c r="J23" s="1">
         <f>'[1]Qc, 2020, Summer'!J23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8783224812174366</v>
+        <v>1.690490233095693</v>
       </c>
       <c r="K23" s="1">
         <f>'[1]Qc, 2020, Summer'!K23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8783224812174366</v>
+        <v>1.690490233095693</v>
       </c>
       <c r="L23" s="1">
         <f>'[1]Qc, 2020, Summer'!L23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4307702698108007</v>
+        <v>2.1876932428297207</v>
       </c>
       <c r="M23" s="1">
         <f>'[1]Qc, 2020, Summer'!M23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4307702698108007</v>
+        <v>2.1876932428297207</v>
       </c>
       <c r="N23" s="1">
         <f>'[1]Qc, 2020, Summer'!N23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4307702698108007</v>
+        <v>2.1876932428297207</v>
       </c>
       <c r="O23" s="1">
         <f>'[1]Qc, 2020, Summer'!O23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4307702698108007</v>
+        <v>2.1876932428297207</v>
       </c>
       <c r="P23" s="1">
         <f>'[1]Qc, 2020, Summer'!P23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0993015966547821</v>
+        <v>1.889371436989304</v>
       </c>
       <c r="Q23" s="1">
         <f>'[1]Qc, 2020, Summer'!Q23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.651749385248146</v>
+        <v>2.3865744467233316</v>
       </c>
       <c r="R23" s="1">
         <f>'[1]Qc, 2020, Summer'!R23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0993015966547821</v>
+        <v>1.889371436989304</v>
       </c>
       <c r="S23" s="1">
         <f>'[1]Qc, 2020, Summer'!S23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0993015966547821</v>
+        <v>1.889371436989304</v>
       </c>
       <c r="T23" s="1">
         <f>'[1]Qc, 2020, Summer'!T23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0993015966547821</v>
+        <v>1.889371436989304</v>
       </c>
       <c r="U23" s="1">
         <f>'[1]Qc, 2020, Summer'!U23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0993015966547821</v>
+        <v>1.889371436989304</v>
       </c>
       <c r="V23" s="1">
         <f>'[1]Qc, 2020, Summer'!V23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0993015966547821</v>
+        <v>1.889371436989304</v>
       </c>
       <c r="W23" s="1">
         <f>'[1]Qc, 2020, Summer'!W23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0993015966547821</v>
+        <v>1.889371436989304</v>
       </c>
       <c r="X23" s="1">
         <f>'[1]Qc, 2020, Summer'!X23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9888120389361095</v>
+        <v>1.7899308350424987</v>
       </c>
       <c r="Y23" s="1">
         <f>'[1]Qc, 2020, Summer'!Y23*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5468538080614185</v>
+        <v>1.3921684272552766</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -36883,99 +36883,99 @@
       </c>
       <c r="B24" s="1">
         <f>'[1]Qc, 2020, Summer'!B24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-10.165039310117892</v>
+        <v>-9.1485353791061037</v>
       </c>
       <c r="C24" s="1">
         <f>'[1]Qc, 2020, Summer'!C24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-12.374830464491348</v>
+        <v>-11.137347418042213</v>
       </c>
       <c r="D24" s="1">
         <f>'[1]Qc, 2020, Summer'!D24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-14.584621618864801</v>
+        <v>-13.126159456978321</v>
       </c>
       <c r="E24" s="1">
         <f>'[1]Qc, 2020, Summer'!E24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-21.213995081985168</v>
+        <v>-19.092595573786653</v>
       </c>
       <c r="F24" s="1">
         <f>'[1]Qc, 2020, Summer'!F24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-22.318890659171895</v>
+        <v>-20.087001593254705</v>
       </c>
       <c r="G24" s="1">
         <f>'[1]Qc, 2020, Summer'!G24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-25.633577390732079</v>
+        <v>-23.070219651658867</v>
       </c>
       <c r="H24" s="1">
         <f>'[1]Qc, 2020, Summer'!H24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-17.899308350424985</v>
+        <v>-16.109377515382487</v>
       </c>
       <c r="I24" s="1">
         <f>'[1]Qc, 2020, Summer'!I24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22097911543734544</v>
+        <v>-0.19888120389361091</v>
       </c>
       <c r="J24" s="1">
         <f>'[1]Qc, 2020, Summer'!J24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4083943476830196</v>
+        <v>5.7675549129147168</v>
       </c>
       <c r="K24" s="1">
         <f>'[1]Qc, 2020, Summer'!K24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>17.457350119550295</v>
+        <v>15.711615107595266</v>
       </c>
       <c r="L24" s="1">
         <f>'[1]Qc, 2020, Summer'!L24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>16.352454542363567</v>
+        <v>14.717209088127211</v>
       </c>
       <c r="M24" s="1">
         <f>'[1]Qc, 2020, Summer'!M24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.82797665642993</v>
+        <v>9.7451789907869362</v>
       </c>
       <c r="N24" s="1">
         <f>'[1]Qc, 2020, Summer'!N24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4083943476830196</v>
+        <v>5.7675549129147168</v>
       </c>
       <c r="O24" s="1">
         <f>'[1]Qc, 2020, Summer'!O24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.535665846997528</v>
+        <v>-3.1820992622977755</v>
       </c>
       <c r="P24" s="1">
         <f>'[1]Qc, 2020, Summer'!P24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.325874692624073</v>
+        <v>-1.1932872233616658</v>
       </c>
       <c r="Q24" s="1">
         <f>'[1]Qc, 2020, Summer'!Q24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.8503525785577102</v>
+        <v>-6.1653173207019396</v>
       </c>
       <c r="R24" s="1">
         <f>'[1]Qc, 2020, Summer'!R24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.8503525785577102</v>
+        <v>-6.1653173207019396</v>
       </c>
       <c r="S24" s="1">
         <f>'[1]Qc, 2020, Summer'!S24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.0601437329311647</v>
+        <v>-8.1541293596380484</v>
       </c>
       <c r="T24" s="1">
         <f>'[1]Qc, 2020, Summer'!T24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22097911543734544</v>
+        <v>-0.19888120389361091</v>
       </c>
       <c r="U24" s="1">
         <f>'[1]Qc, 2020, Summer'!U24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.4307702698108007</v>
+        <v>-2.1876932428297207</v>
       </c>
       <c r="V24" s="1">
         <f>'[1]Qc, 2020, Summer'!V24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.0601437329311647</v>
+        <v>-8.1541293596380484</v>
       </c>
       <c r="W24" s="1">
         <f>'[1]Qc, 2020, Summer'!W24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-11.26993488730462</v>
+        <v>-10.142941398574157</v>
       </c>
       <c r="X24" s="1">
         <f>'[1]Qc, 2020, Summer'!X24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-11.26993488730462</v>
+        <v>-10.142941398574157</v>
       </c>
       <c r="Y24" s="1">
         <f>'[1]Qc, 2020, Summer'!Y24*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-16.794412773238257</v>
+        <v>-15.114971495914432</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -36984,87 +36984,87 @@
       </c>
       <c r="B25" s="1">
         <f>'[1]Qc, 2020, Summer'!B25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.9608421362763844</v>
+        <v>-6.2647579226487453</v>
       </c>
       <c r="C25" s="1">
         <f>'[1]Qc, 2020, Summer'!C25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.9608421362763826</v>
+        <v>-6.2647579226487444</v>
       </c>
       <c r="D25" s="1">
         <f>'[1]Qc, 2020, Summer'!D25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.6461554047162017</v>
+        <v>-3.2815398642445812</v>
       </c>
       <c r="E25" s="1">
         <f>'[1]Qc, 2020, Summer'!E25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.2097911543734541</v>
+        <v>-1.9888120389361086</v>
       </c>
       <c r="F25" s="1">
         <f>'[1]Qc, 2020, Summer'!F25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.3090927510282375</v>
+        <v>-3.8781834759254137</v>
       </c>
       <c r="G25" s="1">
         <f>'[1]Qc, 2020, Summer'!G25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.541259827529474</v>
+        <v>-2.2871338447765268</v>
       </c>
       <c r="H25" s="1">
         <f>'[1]Qc, 2020, Summer'!H25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.7510509819029281</v>
+        <v>-4.2759458837126356</v>
       </c>
       <c r="I25" s="1">
         <f>'[1]Qc, 2020, Summer'!I25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7454570013709843</v>
+        <v>5.1709113012338861</v>
       </c>
       <c r="J25" s="1">
         <f>'[1]Qc, 2020, Summer'!J25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.1818212517137292</v>
+        <v>6.4636391265423567</v>
       </c>
       <c r="K25" s="1">
         <f>'[1]Qc, 2020, Summer'!K25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4363642503427465</v>
+        <v>1.2927278253084717</v>
       </c>
       <c r="L25" s="1">
         <f>'[1]Qc, 2020, Summer'!L25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5356658469975262</v>
+        <v>3.1820992622977737</v>
       </c>
       <c r="M25" s="1">
         <f>'[1]Qc, 2020, Summer'!M25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.3972063866191284</v>
+        <v>7.5574857479572159</v>
       </c>
       <c r="N25" s="1">
         <f>'[1]Qc, 2020, Summer'!N25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.739863020839036</v>
+        <v>6.065876718755133</v>
       </c>
       <c r="O25" s="1">
         <f>'[1]Qc, 2020, Summer'!O25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.9552481557444388</v>
+        <v>7.1597233401699958</v>
       </c>
       <c r="P25" s="1">
         <f>'[1]Qc, 2020, Summer'!P25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9888120389361084</v>
+        <v>1.7899308350424974</v>
       </c>
       <c r="Q25" s="1">
         <f>'[1]Qc, 2020, Summer'!Q25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.6125915215245268</v>
+        <v>8.6513323693720743</v>
       </c>
       <c r="R25" s="1">
         <f>'[1]Qc, 2020, Summer'!R25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.8391646174938181</v>
+        <v>7.955248155744437</v>
       </c>
       <c r="S25" s="1">
         <f>'[1]Qc, 2020, Summer'!S25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8615405396216014</v>
+        <v>4.3753864856594413</v>
       </c>
       <c r="T25" s="1">
         <f>'[1]Qc, 2020, Summer'!T25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7454570013709816</v>
+        <v>5.1709113012338834</v>
       </c>
       <c r="U25" s="1">
         <f>'[1]Qc, 2020, Summer'!U25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7398630208390369</v>
+        <v>6.0658767187551339</v>
       </c>
       <c r="V25" s="1">
         <f>'[1]Qc, 2020, Summer'!V25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.3146867315601822</v>
+        <v>-2.9832180584041645</v>
       </c>
       <c r="W25" s="1">
         <f>'[1]Qc, 2020, Summer'!W25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
@@ -37072,11 +37072,11 @@
       </c>
       <c r="X25" s="1">
         <f>'[1]Qc, 2020, Summer'!X25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33146867315601902</v>
+        <v>0.29832180584041712</v>
       </c>
       <c r="Y25" s="1">
         <f>'[1]Qc, 2020, Summer'!Y25*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.4195823087469082</v>
+        <v>-3.9776240778722172</v>
       </c>
     </row>
   </sheetData>
